--- a/apps/catalog/catalog-e2e/src/fixtures/contract.xlsx
+++ b/apps/catalog/catalog-e2e/src/fixtures/contract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C8\bf-exper\apps\catalog\catalog-e2e\src\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C05A29-0DC8-C140-83D4-7E44BB5D7581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD163D3-0B5C-4443-99AA-89E8B0788715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -550,26 +550,27 @@
       <selection activeCell="A35" sqref="A35"/>
       <selection pane="topRight" activeCell="A35" sqref="A35"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="70.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="28.36328125" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" customWidth="1"/>
+    <col min="15" max="15" width="31.81640625" customWidth="1"/>
+    <col min="16" max="16" width="25.36328125" customWidth="1"/>
+    <col min="17" max="17" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,9 +642,9 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -654,11 +655,11 @@
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>22</v>
@@ -667,7 +668,7 @@
         <v>44197</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>22</v>
@@ -683,7 +684,7 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -704,15 +705,15 @@
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
     </row>
-    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -721,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>22</v>
@@ -729,7 +730,7 @@
       <c r="H3" s="7">
         <v>44197</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -767,15 +768,15 @@
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
@@ -792,8 +793,8 @@
       <c r="H4" s="7">
         <v>44197</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>27</v>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>22</v>
@@ -809,7 +810,7 @@
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -830,21 +831,21 @@
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -856,21 +857,18 @@
         <v>44197</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="5"/>
       <c r="S5" s="6"/>
@@ -893,46 +891,50 @@
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>44197</v>
+        <v>43471</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="L6" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -953,7 +955,7 @@
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -961,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
@@ -970,7 +972,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>22</v>
@@ -1016,7 +1018,7 @@
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
@@ -1027,16 +1029,16 @@
         <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
+      <c r="E8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>43471</v>
@@ -1048,13 +1050,13 @@
         <v>22</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="4"/>
@@ -1080,7 +1082,7 @@
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
     </row>
-    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>61</v>
       </c>
@@ -1091,10 +1093,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>35</v>
@@ -1112,15 +1114,14 @@
         <v>22</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
-      <c r="N9" s="6"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="6"/>
@@ -1144,49 +1145,49 @@
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
+      <c r="D10" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
-        <v>43471</v>
+        <v>44567</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>34</v>
+      <c r="I10" s="9">
+        <v>44927</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>47</v>
+      <c r="K10" s="4" t="s">
+        <v>36</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>47</v>
+      <c r="L10" s="4" t="s">
+        <v>36</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>47</v>
+      <c r="M10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="5"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1207,9 +1208,9 @@
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
     </row>
-    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>33</v>
@@ -1218,10 +1219,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>50</v>
@@ -1238,15 +1239,9 @@
       <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
@@ -1270,9 +1265,9 @@
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1293,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>44567</v>
+        <v>44932</v>
       </c>
       <c r="I12" s="9">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>22</v>
@@ -1327,9 +1322,9 @@
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
     </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -1338,29 +1333,35 @@
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="7">
-        <v>44932</v>
+        <v>44567</v>
       </c>
       <c r="I13" s="9">
-        <v>45292</v>
+        <v>47119</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
@@ -1384,9 +1385,9 @@
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>33</v>
@@ -1395,35 +1396,29 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>24</v>
+      <c r="E14" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>44567</v>
+        <v>48585</v>
       </c>
       <c r="I14" s="9">
-        <v>47119</v>
+        <v>49310</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
@@ -1447,9 +1442,9 @@
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
     </row>
-    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -1458,10 +1453,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>57</v>
+      <c r="E15" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -1504,9 +1499,9 @@
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>33</v>
@@ -1524,13 +1519,13 @@
         <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
-        <v>48585</v>
+        <v>44202</v>
       </c>
       <c r="I16" s="9">
-        <v>49310</v>
+        <v>44927</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>22</v>
@@ -1561,9 +1556,9 @@
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
     </row>
-    <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>33</v>
@@ -1618,9 +1613,9 @@
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>33</v>
@@ -1638,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>44202</v>
@@ -1675,9 +1670,9 @@
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1686,13 +1681,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>43</v>
@@ -1732,40 +1727,46 @@
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>38</v>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>43</v>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H20" s="7">
-        <v>44202</v>
+        <v>44197</v>
       </c>
-      <c r="I20" s="9">
-        <v>44927</v>
+      <c r="I20" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="K20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
@@ -1789,7 +1790,7 @@
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
     </row>
-    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1821,7 +1822,7 @@
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1852,7 +1853,7 @@
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1883,7 +1884,7 @@
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
     </row>
-    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1914,7 +1915,7 @@
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1945,7 +1946,7 @@
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1976,7 +1977,7 @@
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2007,7 +2008,7 @@
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2038,7 +2039,7 @@
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2069,7 +2070,7 @@
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2100,7 +2101,7 @@
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2138,7 +2139,7 @@
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2176,7 +2177,7 @@
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2214,7 +2215,7 @@
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2252,7 +2253,7 @@
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2290,7 +2291,7 @@
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2328,7 +2329,7 @@
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2366,7 +2367,7 @@
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2404,7 +2405,7 @@
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
     </row>
-    <row r="39" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2442,7 +2443,7 @@
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
     </row>
-    <row r="40" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2480,7 +2481,7 @@
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
     </row>
-    <row r="41" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2518,7 +2519,7 @@
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
     </row>
-    <row r="42" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2556,7 +2557,7 @@
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
     </row>
-    <row r="43" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2594,7 +2595,7 @@
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
     </row>
-    <row r="44" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2632,7 +2633,7 @@
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
     </row>
-    <row r="45" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2670,7 +2671,7 @@
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
     </row>
-    <row r="46" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2708,7 +2709,7 @@
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
     </row>
-    <row r="47" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2746,7 +2747,7 @@
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
     </row>
-    <row r="48" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2784,7 +2785,7 @@
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
     </row>
-    <row r="49" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2822,7 +2823,7 @@
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
     </row>
-    <row r="50" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2860,7 +2861,7 @@
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
     </row>
-    <row r="51" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2898,7 +2899,7 @@
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
     </row>
-    <row r="52" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2936,7 +2937,7 @@
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
     </row>
-    <row r="53" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2974,7 +2975,7 @@
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
     </row>
-    <row r="54" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3012,7 +3013,7 @@
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
     </row>
-    <row r="55" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3050,7 +3051,7 @@
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
     </row>
-    <row r="56" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3088,7 +3089,7 @@
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
     </row>
-    <row r="57" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3126,7 +3127,7 @@
       <c r="AJ57" s="6"/>
       <c r="AK57" s="6"/>
     </row>
-    <row r="58" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3164,7 +3165,7 @@
       <c r="AJ58" s="6"/>
       <c r="AK58" s="6"/>
     </row>
-    <row r="59" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3202,7 +3203,7 @@
       <c r="AJ59" s="6"/>
       <c r="AK59" s="6"/>
     </row>
-    <row r="60" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3240,7 +3241,7 @@
       <c r="AJ60" s="6"/>
       <c r="AK60" s="6"/>
     </row>
-    <row r="61" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3278,7 +3279,7 @@
       <c r="AJ61" s="6"/>
       <c r="AK61" s="6"/>
     </row>
-    <row r="62" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3316,7 +3317,7 @@
       <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
     </row>
-    <row r="63" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3354,7 +3355,7 @@
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
     </row>
-    <row r="64" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3392,7 +3393,7 @@
       <c r="AJ64" s="6"/>
       <c r="AK64" s="6"/>
     </row>
-    <row r="65" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -3430,7 +3431,7 @@
       <c r="AJ65" s="6"/>
       <c r="AK65" s="6"/>
     </row>
-    <row r="66" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3468,7 +3469,7 @@
       <c r="AJ66" s="6"/>
       <c r="AK66" s="6"/>
     </row>
-    <row r="67" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3506,7 +3507,7 @@
       <c r="AJ67" s="6"/>
       <c r="AK67" s="6"/>
     </row>
-    <row r="68" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3544,7 +3545,7 @@
       <c r="AJ68" s="6"/>
       <c r="AK68" s="6"/>
     </row>
-    <row r="69" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3582,7 +3583,7 @@
       <c r="AJ69" s="6"/>
       <c r="AK69" s="6"/>
     </row>
-    <row r="70" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3620,7 +3621,7 @@
       <c r="AJ70" s="6"/>
       <c r="AK70" s="6"/>
     </row>
-    <row r="71" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3658,7 +3659,7 @@
       <c r="AJ71" s="6"/>
       <c r="AK71" s="6"/>
     </row>
-    <row r="72" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3696,7 +3697,7 @@
       <c r="AJ72" s="6"/>
       <c r="AK72" s="6"/>
     </row>
-    <row r="73" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3734,7 +3735,7 @@
       <c r="AJ73" s="6"/>
       <c r="AK73" s="6"/>
     </row>
-    <row r="74" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3772,7 +3773,7 @@
       <c r="AJ74" s="6"/>
       <c r="AK74" s="6"/>
     </row>
-    <row r="75" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3810,7 +3811,7 @@
       <c r="AJ75" s="6"/>
       <c r="AK75" s="6"/>
     </row>
-    <row r="76" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3848,7 +3849,7 @@
       <c r="AJ76" s="6"/>
       <c r="AK76" s="6"/>
     </row>
-    <row r="77" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3886,7 +3887,7 @@
       <c r="AJ77" s="6"/>
       <c r="AK77" s="6"/>
     </row>
-    <row r="78" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -3924,7 +3925,7 @@
       <c r="AJ78" s="6"/>
       <c r="AK78" s="6"/>
     </row>
-    <row r="79" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -3962,7 +3963,7 @@
       <c r="AJ79" s="6"/>
       <c r="AK79" s="6"/>
     </row>
-    <row r="80" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4000,7 +4001,7 @@
       <c r="AJ80" s="6"/>
       <c r="AK80" s="6"/>
     </row>
-    <row r="81" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -4038,7 +4039,7 @@
       <c r="AJ81" s="6"/>
       <c r="AK81" s="6"/>
     </row>
-    <row r="82" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -4076,7 +4077,7 @@
       <c r="AJ82" s="6"/>
       <c r="AK82" s="6"/>
     </row>
-    <row r="83" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -4114,7 +4115,7 @@
       <c r="AJ83" s="6"/>
       <c r="AK83" s="6"/>
     </row>
-    <row r="84" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -4152,7 +4153,7 @@
       <c r="AJ84" s="6"/>
       <c r="AK84" s="6"/>
     </row>
-    <row r="85" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -4190,7 +4191,7 @@
       <c r="AJ85" s="6"/>
       <c r="AK85" s="6"/>
     </row>
-    <row r="86" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4228,7 +4229,7 @@
       <c r="AJ86" s="6"/>
       <c r="AK86" s="6"/>
     </row>
-    <row r="87" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4266,7 +4267,7 @@
       <c r="AJ87" s="6"/>
       <c r="AK87" s="6"/>
     </row>
-    <row r="88" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4304,7 +4305,7 @@
       <c r="AJ88" s="6"/>
       <c r="AK88" s="6"/>
     </row>
-    <row r="89" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4342,7 +4343,7 @@
       <c r="AJ89" s="6"/>
       <c r="AK89" s="6"/>
     </row>
-    <row r="90" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -4380,7 +4381,7 @@
       <c r="AJ90" s="6"/>
       <c r="AK90" s="6"/>
     </row>
-    <row r="91" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -4418,7 +4419,7 @@
       <c r="AJ91" s="6"/>
       <c r="AK91" s="6"/>
     </row>
-    <row r="92" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -4456,7 +4457,7 @@
       <c r="AJ92" s="6"/>
       <c r="AK92" s="6"/>
     </row>
-    <row r="93" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -4494,7 +4495,7 @@
       <c r="AJ93" s="6"/>
       <c r="AK93" s="6"/>
     </row>
-    <row r="94" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -4532,7 +4533,7 @@
       <c r="AJ94" s="6"/>
       <c r="AK94" s="6"/>
     </row>
-    <row r="95" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -4570,7 +4571,7 @@
       <c r="AJ95" s="6"/>
       <c r="AK95" s="6"/>
     </row>
-    <row r="96" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -4608,7 +4609,7 @@
       <c r="AJ96" s="6"/>
       <c r="AK96" s="6"/>
     </row>
-    <row r="97" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -4646,7 +4647,7 @@
       <c r="AJ97" s="6"/>
       <c r="AK97" s="6"/>
     </row>
-    <row r="98" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -4684,7 +4685,7 @@
       <c r="AJ98" s="6"/>
       <c r="AK98" s="6"/>
     </row>
-    <row r="99" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -4722,7 +4723,7 @@
       <c r="AJ99" s="6"/>
       <c r="AK99" s="6"/>
     </row>
-    <row r="100" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -4760,7 +4761,7 @@
       <c r="AJ100" s="6"/>
       <c r="AK100" s="6"/>
     </row>
-    <row r="101" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -4798,7 +4799,7 @@
       <c r="AJ101" s="6"/>
       <c r="AK101" s="6"/>
     </row>
-    <row r="102" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -4836,7 +4837,7 @@
       <c r="AJ102" s="6"/>
       <c r="AK102" s="6"/>
     </row>
-    <row r="103" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -4874,7 +4875,7 @@
       <c r="AJ103" s="6"/>
       <c r="AK103" s="6"/>
     </row>
-    <row r="104" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -4912,7 +4913,7 @@
       <c r="AJ104" s="6"/>
       <c r="AK104" s="6"/>
     </row>
-    <row r="105" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -4950,7 +4951,7 @@
       <c r="AJ105" s="6"/>
       <c r="AK105" s="6"/>
     </row>
-    <row r="106" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -4988,7 +4989,7 @@
       <c r="AJ106" s="6"/>
       <c r="AK106" s="6"/>
     </row>
-    <row r="107" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -5026,7 +5027,7 @@
       <c r="AJ107" s="6"/>
       <c r="AK107" s="6"/>
     </row>
-    <row r="108" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -5064,7 +5065,7 @@
       <c r="AJ108" s="6"/>
       <c r="AK108" s="6"/>
     </row>
-    <row r="109" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -5102,7 +5103,7 @@
       <c r="AJ109" s="6"/>
       <c r="AK109" s="6"/>
     </row>
-    <row r="110" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -5140,7 +5141,7 @@
       <c r="AJ110" s="6"/>
       <c r="AK110" s="6"/>
     </row>
-    <row r="111" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -5178,7 +5179,7 @@
       <c r="AJ111" s="6"/>
       <c r="AK111" s="6"/>
     </row>
-    <row r="112" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -5216,7 +5217,7 @@
       <c r="AJ112" s="6"/>
       <c r="AK112" s="6"/>
     </row>
-    <row r="113" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -5254,7 +5255,7 @@
       <c r="AJ113" s="6"/>
       <c r="AK113" s="6"/>
     </row>
-    <row r="114" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -5292,7 +5293,7 @@
       <c r="AJ114" s="6"/>
       <c r="AK114" s="6"/>
     </row>
-    <row r="115" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -5330,7 +5331,7 @@
       <c r="AJ115" s="6"/>
       <c r="AK115" s="6"/>
     </row>
-    <row r="116" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -5368,7 +5369,7 @@
       <c r="AJ116" s="6"/>
       <c r="AK116" s="6"/>
     </row>
-    <row r="117" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -5406,7 +5407,7 @@
       <c r="AJ117" s="6"/>
       <c r="AK117" s="6"/>
     </row>
-    <row r="118" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -5444,7 +5445,7 @@
       <c r="AJ118" s="6"/>
       <c r="AK118" s="6"/>
     </row>
-    <row r="119" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -5482,7 +5483,7 @@
       <c r="AJ119" s="6"/>
       <c r="AK119" s="6"/>
     </row>
-    <row r="120" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -5520,7 +5521,7 @@
       <c r="AJ120" s="6"/>
       <c r="AK120" s="6"/>
     </row>
-    <row r="121" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -5558,7 +5559,7 @@
       <c r="AJ121" s="6"/>
       <c r="AK121" s="6"/>
     </row>
-    <row r="122" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -5596,7 +5597,7 @@
       <c r="AJ122" s="6"/>
       <c r="AK122" s="6"/>
     </row>
-    <row r="123" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -5634,7 +5635,7 @@
       <c r="AJ123" s="6"/>
       <c r="AK123" s="6"/>
     </row>
-    <row r="124" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -5672,7 +5673,7 @@
       <c r="AJ124" s="6"/>
       <c r="AK124" s="6"/>
     </row>
-    <row r="125" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -5710,7 +5711,7 @@
       <c r="AJ125" s="6"/>
       <c r="AK125" s="6"/>
     </row>
-    <row r="126" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -5748,7 +5749,7 @@
       <c r="AJ126" s="6"/>
       <c r="AK126" s="6"/>
     </row>
-    <row r="127" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -5786,7 +5787,7 @@
       <c r="AJ127" s="6"/>
       <c r="AK127" s="6"/>
     </row>
-    <row r="128" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -5824,7 +5825,7 @@
       <c r="AJ128" s="6"/>
       <c r="AK128" s="6"/>
     </row>
-    <row r="129" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -5862,7 +5863,7 @@
       <c r="AJ129" s="6"/>
       <c r="AK129" s="6"/>
     </row>
-    <row r="130" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -5900,7 +5901,7 @@
       <c r="AJ130" s="6"/>
       <c r="AK130" s="6"/>
     </row>
-    <row r="131" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -5938,7 +5939,7 @@
       <c r="AJ131" s="6"/>
       <c r="AK131" s="6"/>
     </row>
-    <row r="132" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -5976,7 +5977,7 @@
       <c r="AJ132" s="6"/>
       <c r="AK132" s="6"/>
     </row>
-    <row r="133" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -6014,7 +6015,7 @@
       <c r="AJ133" s="6"/>
       <c r="AK133" s="6"/>
     </row>
-    <row r="134" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -6052,7 +6053,7 @@
       <c r="AJ134" s="6"/>
       <c r="AK134" s="6"/>
     </row>
-    <row r="135" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -6090,7 +6091,7 @@
       <c r="AJ135" s="6"/>
       <c r="AK135" s="6"/>
     </row>
-    <row r="136" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -6128,7 +6129,7 @@
       <c r="AJ136" s="6"/>
       <c r="AK136" s="6"/>
     </row>
-    <row r="137" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -6166,7 +6167,7 @@
       <c r="AJ137" s="6"/>
       <c r="AK137" s="6"/>
     </row>
-    <row r="138" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -6204,7 +6205,7 @@
       <c r="AJ138" s="6"/>
       <c r="AK138" s="6"/>
     </row>
-    <row r="139" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -6242,7 +6243,7 @@
       <c r="AJ139" s="6"/>
       <c r="AK139" s="6"/>
     </row>
-    <row r="140" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -6280,7 +6281,7 @@
       <c r="AJ140" s="6"/>
       <c r="AK140" s="6"/>
     </row>
-    <row r="141" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -6318,7 +6319,7 @@
       <c r="AJ141" s="6"/>
       <c r="AK141" s="6"/>
     </row>
-    <row r="142" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -6356,7 +6357,7 @@
       <c r="AJ142" s="6"/>
       <c r="AK142" s="6"/>
     </row>
-    <row r="143" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -6394,7 +6395,7 @@
       <c r="AJ143" s="6"/>
       <c r="AK143" s="6"/>
     </row>
-    <row r="144" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -6432,7 +6433,7 @@
       <c r="AJ144" s="6"/>
       <c r="AK144" s="6"/>
     </row>
-    <row r="145" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -6470,7 +6471,7 @@
       <c r="AJ145" s="6"/>
       <c r="AK145" s="6"/>
     </row>
-    <row r="146" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -6508,7 +6509,7 @@
       <c r="AJ146" s="6"/>
       <c r="AK146" s="6"/>
     </row>
-    <row r="147" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -6546,7 +6547,7 @@
       <c r="AJ147" s="6"/>
       <c r="AK147" s="6"/>
     </row>
-    <row r="148" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -6584,7 +6585,7 @@
       <c r="AJ148" s="6"/>
       <c r="AK148" s="6"/>
     </row>
-    <row r="149" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -6622,7 +6623,7 @@
       <c r="AJ149" s="6"/>
       <c r="AK149" s="6"/>
     </row>
-    <row r="150" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -6660,7 +6661,7 @@
       <c r="AJ150" s="6"/>
       <c r="AK150" s="6"/>
     </row>
-    <row r="151" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -6698,7 +6699,7 @@
       <c r="AJ151" s="6"/>
       <c r="AK151" s="6"/>
     </row>
-    <row r="152" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -6736,7 +6737,7 @@
       <c r="AJ152" s="6"/>
       <c r="AK152" s="6"/>
     </row>
-    <row r="153" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -6774,7 +6775,7 @@
       <c r="AJ153" s="6"/>
       <c r="AK153" s="6"/>
     </row>
-    <row r="154" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -6812,7 +6813,7 @@
       <c r="AJ154" s="6"/>
       <c r="AK154" s="6"/>
     </row>
-    <row r="155" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -6850,7 +6851,7 @@
       <c r="AJ155" s="6"/>
       <c r="AK155" s="6"/>
     </row>
-    <row r="156" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -6888,7 +6889,7 @@
       <c r="AJ156" s="6"/>
       <c r="AK156" s="6"/>
     </row>
-    <row r="157" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -6926,7 +6927,7 @@
       <c r="AJ157" s="6"/>
       <c r="AK157" s="6"/>
     </row>
-    <row r="158" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -6964,7 +6965,7 @@
       <c r="AJ158" s="6"/>
       <c r="AK158" s="6"/>
     </row>
-    <row r="159" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -7002,7 +7003,7 @@
       <c r="AJ159" s="6"/>
       <c r="AK159" s="6"/>
     </row>
-    <row r="160" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -7040,7 +7041,7 @@
       <c r="AJ160" s="6"/>
       <c r="AK160" s="6"/>
     </row>
-    <row r="161" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -7078,7 +7079,7 @@
       <c r="AJ161" s="6"/>
       <c r="AK161" s="6"/>
     </row>
-    <row r="162" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -7116,7 +7117,7 @@
       <c r="AJ162" s="6"/>
       <c r="AK162" s="6"/>
     </row>
-    <row r="163" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -7154,7 +7155,7 @@
       <c r="AJ163" s="6"/>
       <c r="AK163" s="6"/>
     </row>
-    <row r="164" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -7192,7 +7193,7 @@
       <c r="AJ164" s="6"/>
       <c r="AK164" s="6"/>
     </row>
-    <row r="165" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -7230,7 +7231,7 @@
       <c r="AJ165" s="6"/>
       <c r="AK165" s="6"/>
     </row>
-    <row r="166" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -7268,7 +7269,7 @@
       <c r="AJ166" s="6"/>
       <c r="AK166" s="6"/>
     </row>
-    <row r="167" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -7306,7 +7307,7 @@
       <c r="AJ167" s="6"/>
       <c r="AK167" s="6"/>
     </row>
-    <row r="168" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -7344,7 +7345,7 @@
       <c r="AJ168" s="6"/>
       <c r="AK168" s="6"/>
     </row>
-    <row r="169" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -7382,7 +7383,7 @@
       <c r="AJ169" s="6"/>
       <c r="AK169" s="6"/>
     </row>
-    <row r="170" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -7420,7 +7421,7 @@
       <c r="AJ170" s="6"/>
       <c r="AK170" s="6"/>
     </row>
-    <row r="171" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -7458,7 +7459,7 @@
       <c r="AJ171" s="6"/>
       <c r="AK171" s="6"/>
     </row>
-    <row r="172" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -7496,7 +7497,7 @@
       <c r="AJ172" s="6"/>
       <c r="AK172" s="6"/>
     </row>
-    <row r="173" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -7534,7 +7535,7 @@
       <c r="AJ173" s="6"/>
       <c r="AK173" s="6"/>
     </row>
-    <row r="174" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -7572,7 +7573,7 @@
       <c r="AJ174" s="6"/>
       <c r="AK174" s="6"/>
     </row>
-    <row r="175" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7610,7 +7611,7 @@
       <c r="AJ175" s="6"/>
       <c r="AK175" s="6"/>
     </row>
-    <row r="176" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7648,7 +7649,7 @@
       <c r="AJ176" s="6"/>
       <c r="AK176" s="6"/>
     </row>
-    <row r="177" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7686,7 +7687,7 @@
       <c r="AJ177" s="6"/>
       <c r="AK177" s="6"/>
     </row>
-    <row r="178" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7724,7 +7725,7 @@
       <c r="AJ178" s="6"/>
       <c r="AK178" s="6"/>
     </row>
-    <row r="179" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7762,7 +7763,7 @@
       <c r="AJ179" s="6"/>
       <c r="AK179" s="6"/>
     </row>
-    <row r="180" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -7800,7 +7801,7 @@
       <c r="AJ180" s="6"/>
       <c r="AK180" s="6"/>
     </row>
-    <row r="181" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -7838,7 +7839,7 @@
       <c r="AJ181" s="6"/>
       <c r="AK181" s="6"/>
     </row>
-    <row r="182" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7876,7 +7877,7 @@
       <c r="AJ182" s="6"/>
       <c r="AK182" s="6"/>
     </row>
-    <row r="183" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7914,7 +7915,7 @@
       <c r="AJ183" s="6"/>
       <c r="AK183" s="6"/>
     </row>
-    <row r="184" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -7952,7 +7953,7 @@
       <c r="AJ184" s="6"/>
       <c r="AK184" s="6"/>
     </row>
-    <row r="185" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -7990,7 +7991,7 @@
       <c r="AJ185" s="6"/>
       <c r="AK185" s="6"/>
     </row>
-    <row r="186" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -8028,7 +8029,7 @@
       <c r="AJ186" s="6"/>
       <c r="AK186" s="6"/>
     </row>
-    <row r="187" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -8066,7 +8067,7 @@
       <c r="AJ187" s="6"/>
       <c r="AK187" s="6"/>
     </row>
-    <row r="188" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -8104,7 +8105,7 @@
       <c r="AJ188" s="6"/>
       <c r="AK188" s="6"/>
     </row>
-    <row r="189" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -8142,7 +8143,7 @@
       <c r="AJ189" s="6"/>
       <c r="AK189" s="6"/>
     </row>
-    <row r="190" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -8180,7 +8181,7 @@
       <c r="AJ190" s="6"/>
       <c r="AK190" s="6"/>
     </row>
-    <row r="191" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -8218,7 +8219,7 @@
       <c r="AJ191" s="6"/>
       <c r="AK191" s="6"/>
     </row>
-    <row r="192" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -8256,7 +8257,7 @@
       <c r="AJ192" s="6"/>
       <c r="AK192" s="6"/>
     </row>
-    <row r="193" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -8294,7 +8295,7 @@
       <c r="AJ193" s="6"/>
       <c r="AK193" s="6"/>
     </row>
-    <row r="194" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -8332,7 +8333,7 @@
       <c r="AJ194" s="6"/>
       <c r="AK194" s="6"/>
     </row>
-    <row r="195" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -8370,7 +8371,7 @@
       <c r="AJ195" s="6"/>
       <c r="AK195" s="6"/>
     </row>
-    <row r="196" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -8408,7 +8409,7 @@
       <c r="AJ196" s="6"/>
       <c r="AK196" s="6"/>
     </row>
-    <row r="197" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -8446,7 +8447,7 @@
       <c r="AJ197" s="6"/>
       <c r="AK197" s="6"/>
     </row>
-    <row r="198" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -8484,7 +8485,7 @@
       <c r="AJ198" s="6"/>
       <c r="AK198" s="6"/>
     </row>
-    <row r="199" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -8522,7 +8523,7 @@
       <c r="AJ199" s="6"/>
       <c r="AK199" s="6"/>
     </row>
-    <row r="200" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -8560,7 +8561,7 @@
       <c r="AJ200" s="6"/>
       <c r="AK200" s="6"/>
     </row>
-    <row r="201" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -8598,7 +8599,7 @@
       <c r="AJ201" s="6"/>
       <c r="AK201" s="6"/>
     </row>
-    <row r="202" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -8636,7 +8637,7 @@
       <c r="AJ202" s="6"/>
       <c r="AK202" s="6"/>
     </row>
-    <row r="203" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -8674,7 +8675,7 @@
       <c r="AJ203" s="6"/>
       <c r="AK203" s="6"/>
     </row>
-    <row r="204" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -8712,7 +8713,7 @@
       <c r="AJ204" s="6"/>
       <c r="AK204" s="6"/>
     </row>
-    <row r="205" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -8750,7 +8751,7 @@
       <c r="AJ205" s="6"/>
       <c r="AK205" s="6"/>
     </row>
-    <row r="206" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -8788,7 +8789,7 @@
       <c r="AJ206" s="6"/>
       <c r="AK206" s="6"/>
     </row>
-    <row r="207" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -8826,7 +8827,7 @@
       <c r="AJ207" s="6"/>
       <c r="AK207" s="6"/>
     </row>
-    <row r="208" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -8864,7 +8865,7 @@
       <c r="AJ208" s="6"/>
       <c r="AK208" s="6"/>
     </row>
-    <row r="209" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -8902,7 +8903,7 @@
       <c r="AJ209" s="6"/>
       <c r="AK209" s="6"/>
     </row>
-    <row r="210" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -8940,7 +8941,7 @@
       <c r="AJ210" s="6"/>
       <c r="AK210" s="6"/>
     </row>
-    <row r="211" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -8978,7 +8979,7 @@
       <c r="AJ211" s="6"/>
       <c r="AK211" s="6"/>
     </row>
-    <row r="212" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -9016,7 +9017,7 @@
       <c r="AJ212" s="6"/>
       <c r="AK212" s="6"/>
     </row>
-    <row r="213" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -9054,7 +9055,7 @@
       <c r="AJ213" s="6"/>
       <c r="AK213" s="6"/>
     </row>
-    <row r="214" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -9092,7 +9093,7 @@
       <c r="AJ214" s="6"/>
       <c r="AK214" s="6"/>
     </row>
-    <row r="215" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -9130,7 +9131,7 @@
       <c r="AJ215" s="6"/>
       <c r="AK215" s="6"/>
     </row>
-    <row r="216" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -9168,7 +9169,7 @@
       <c r="AJ216" s="6"/>
       <c r="AK216" s="6"/>
     </row>
-    <row r="217" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -9206,7 +9207,7 @@
       <c r="AJ217" s="6"/>
       <c r="AK217" s="6"/>
     </row>
-    <row r="218" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -9244,7 +9245,7 @@
       <c r="AJ218" s="6"/>
       <c r="AK218" s="6"/>
     </row>
-    <row r="219" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -9282,7 +9283,7 @@
       <c r="AJ219" s="6"/>
       <c r="AK219" s="6"/>
     </row>
-    <row r="220" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -9320,7 +9321,7 @@
       <c r="AJ220" s="6"/>
       <c r="AK220" s="6"/>
     </row>
-    <row r="221" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -9358,7 +9359,7 @@
       <c r="AJ221" s="6"/>
       <c r="AK221" s="6"/>
     </row>
-    <row r="222" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -9396,7 +9397,7 @@
       <c r="AJ222" s="6"/>
       <c r="AK222" s="6"/>
     </row>
-    <row r="223" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -9434,7 +9435,7 @@
       <c r="AJ223" s="6"/>
       <c r="AK223" s="6"/>
     </row>
-    <row r="224" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -9472,7 +9473,7 @@
       <c r="AJ224" s="6"/>
       <c r="AK224" s="6"/>
     </row>
-    <row r="225" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -9510,7 +9511,7 @@
       <c r="AJ225" s="6"/>
       <c r="AK225" s="6"/>
     </row>
-    <row r="226" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -9548,7 +9549,7 @@
       <c r="AJ226" s="6"/>
       <c r="AK226" s="6"/>
     </row>
-    <row r="227" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -9586,7 +9587,7 @@
       <c r="AJ227" s="6"/>
       <c r="AK227" s="6"/>
     </row>
-    <row r="228" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -9624,7 +9625,7 @@
       <c r="AJ228" s="6"/>
       <c r="AK228" s="6"/>
     </row>
-    <row r="229" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -9662,7 +9663,7 @@
       <c r="AJ229" s="6"/>
       <c r="AK229" s="6"/>
     </row>
-    <row r="230" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -9700,7 +9701,7 @@
       <c r="AJ230" s="6"/>
       <c r="AK230" s="6"/>
     </row>
-    <row r="231" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -9738,7 +9739,7 @@
       <c r="AJ231" s="6"/>
       <c r="AK231" s="6"/>
     </row>
-    <row r="232" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -9776,7 +9777,7 @@
       <c r="AJ232" s="6"/>
       <c r="AK232" s="6"/>
     </row>
-    <row r="233" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -9814,7 +9815,7 @@
       <c r="AJ233" s="6"/>
       <c r="AK233" s="6"/>
     </row>
-    <row r="234" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -9852,7 +9853,7 @@
       <c r="AJ234" s="6"/>
       <c r="AK234" s="6"/>
     </row>
-    <row r="235" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -9890,7 +9891,7 @@
       <c r="AJ235" s="6"/>
       <c r="AK235" s="6"/>
     </row>
-    <row r="236" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -9928,7 +9929,7 @@
       <c r="AJ236" s="6"/>
       <c r="AK236" s="6"/>
     </row>
-    <row r="237" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -9966,7 +9967,7 @@
       <c r="AJ237" s="6"/>
       <c r="AK237" s="6"/>
     </row>
-    <row r="238" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -10004,7 +10005,7 @@
       <c r="AJ238" s="6"/>
       <c r="AK238" s="6"/>
     </row>
-    <row r="239" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -10042,7 +10043,7 @@
       <c r="AJ239" s="6"/>
       <c r="AK239" s="6"/>
     </row>
-    <row r="240" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -10080,7 +10081,7 @@
       <c r="AJ240" s="6"/>
       <c r="AK240" s="6"/>
     </row>
-    <row r="241" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -10118,7 +10119,7 @@
       <c r="AJ241" s="6"/>
       <c r="AK241" s="6"/>
     </row>
-    <row r="242" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -10156,7 +10157,7 @@
       <c r="AJ242" s="6"/>
       <c r="AK242" s="6"/>
     </row>
-    <row r="243" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -10194,7 +10195,7 @@
       <c r="AJ243" s="6"/>
       <c r="AK243" s="6"/>
     </row>
-    <row r="244" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -10232,7 +10233,7 @@
       <c r="AJ244" s="6"/>
       <c r="AK244" s="6"/>
     </row>
-    <row r="245" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -10270,7 +10271,7 @@
       <c r="AJ245" s="6"/>
       <c r="AK245" s="6"/>
     </row>
-    <row r="246" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -10308,7 +10309,7 @@
       <c r="AJ246" s="6"/>
       <c r="AK246" s="6"/>
     </row>
-    <row r="247" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -10346,7 +10347,7 @@
       <c r="AJ247" s="6"/>
       <c r="AK247" s="6"/>
     </row>
-    <row r="248" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -10384,7 +10385,7 @@
       <c r="AJ248" s="6"/>
       <c r="AK248" s="6"/>
     </row>
-    <row r="249" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -10422,7 +10423,7 @@
       <c r="AJ249" s="6"/>
       <c r="AK249" s="6"/>
     </row>
-    <row r="250" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -10460,7 +10461,7 @@
       <c r="AJ250" s="6"/>
       <c r="AK250" s="6"/>
     </row>
-    <row r="251" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -10498,7 +10499,7 @@
       <c r="AJ251" s="6"/>
       <c r="AK251" s="6"/>
     </row>
-    <row r="252" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -10536,7 +10537,7 @@
       <c r="AJ252" s="6"/>
       <c r="AK252" s="6"/>
     </row>
-    <row r="253" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -10574,7 +10575,7 @@
       <c r="AJ253" s="6"/>
       <c r="AK253" s="6"/>
     </row>
-    <row r="254" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -10612,7 +10613,7 @@
       <c r="AJ254" s="6"/>
       <c r="AK254" s="6"/>
     </row>
-    <row r="255" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -10650,7 +10651,7 @@
       <c r="AJ255" s="6"/>
       <c r="AK255" s="6"/>
     </row>
-    <row r="256" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -10688,7 +10689,7 @@
       <c r="AJ256" s="6"/>
       <c r="AK256" s="6"/>
     </row>
-    <row r="257" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -10726,7 +10727,7 @@
       <c r="AJ257" s="6"/>
       <c r="AK257" s="6"/>
     </row>
-    <row r="258" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -10764,7 +10765,7 @@
       <c r="AJ258" s="6"/>
       <c r="AK258" s="6"/>
     </row>
-    <row r="259" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -10802,7 +10803,7 @@
       <c r="AJ259" s="6"/>
       <c r="AK259" s="6"/>
     </row>
-    <row r="260" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -10840,7 +10841,7 @@
       <c r="AJ260" s="6"/>
       <c r="AK260" s="6"/>
     </row>
-    <row r="261" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -10878,7 +10879,7 @@
       <c r="AJ261" s="6"/>
       <c r="AK261" s="6"/>
     </row>
-    <row r="262" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -10916,7 +10917,7 @@
       <c r="AJ262" s="6"/>
       <c r="AK262" s="6"/>
     </row>
-    <row r="263" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -10954,7 +10955,7 @@
       <c r="AJ263" s="6"/>
       <c r="AK263" s="6"/>
     </row>
-    <row r="264" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -10992,7 +10993,7 @@
       <c r="AJ264" s="6"/>
       <c r="AK264" s="6"/>
     </row>
-    <row r="265" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -11030,7 +11031,7 @@
       <c r="AJ265" s="6"/>
       <c r="AK265" s="6"/>
     </row>
-    <row r="266" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -11068,7 +11069,7 @@
       <c r="AJ266" s="6"/>
       <c r="AK266" s="6"/>
     </row>
-    <row r="267" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -11106,7 +11107,7 @@
       <c r="AJ267" s="6"/>
       <c r="AK267" s="6"/>
     </row>
-    <row r="268" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -11144,7 +11145,7 @@
       <c r="AJ268" s="6"/>
       <c r="AK268" s="6"/>
     </row>
-    <row r="269" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -11182,7 +11183,7 @@
       <c r="AJ269" s="6"/>
       <c r="AK269" s="6"/>
     </row>
-    <row r="270" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -11220,7 +11221,7 @@
       <c r="AJ270" s="6"/>
       <c r="AK270" s="6"/>
     </row>
-    <row r="271" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -11258,7 +11259,7 @@
       <c r="AJ271" s="6"/>
       <c r="AK271" s="6"/>
     </row>
-    <row r="272" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -11296,7 +11297,7 @@
       <c r="AJ272" s="6"/>
       <c r="AK272" s="6"/>
     </row>
-    <row r="273" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -11334,7 +11335,7 @@
       <c r="AJ273" s="6"/>
       <c r="AK273" s="6"/>
     </row>
-    <row r="274" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -11372,7 +11373,7 @@
       <c r="AJ274" s="6"/>
       <c r="AK274" s="6"/>
     </row>
-    <row r="275" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -11410,7 +11411,7 @@
       <c r="AJ275" s="6"/>
       <c r="AK275" s="6"/>
     </row>
-    <row r="276" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -11448,7 +11449,7 @@
       <c r="AJ276" s="6"/>
       <c r="AK276" s="6"/>
     </row>
-    <row r="277" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -11486,7 +11487,7 @@
       <c r="AJ277" s="6"/>
       <c r="AK277" s="6"/>
     </row>
-    <row r="278" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -11524,7 +11525,7 @@
       <c r="AJ278" s="6"/>
       <c r="AK278" s="6"/>
     </row>
-    <row r="279" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -11562,7 +11563,7 @@
       <c r="AJ279" s="6"/>
       <c r="AK279" s="6"/>
     </row>
-    <row r="280" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -11600,7 +11601,7 @@
       <c r="AJ280" s="6"/>
       <c r="AK280" s="6"/>
     </row>
-    <row r="281" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -11638,7 +11639,7 @@
       <c r="AJ281" s="6"/>
       <c r="AK281" s="6"/>
     </row>
-    <row r="282" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -11676,7 +11677,7 @@
       <c r="AJ282" s="6"/>
       <c r="AK282" s="6"/>
     </row>
-    <row r="283" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -11714,7 +11715,7 @@
       <c r="AJ283" s="6"/>
       <c r="AK283" s="6"/>
     </row>
-    <row r="284" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -11752,7 +11753,7 @@
       <c r="AJ284" s="6"/>
       <c r="AK284" s="6"/>
     </row>
-    <row r="285" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -11790,7 +11791,7 @@
       <c r="AJ285" s="6"/>
       <c r="AK285" s="6"/>
     </row>
-    <row r="286" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -11828,7 +11829,7 @@
       <c r="AJ286" s="6"/>
       <c r="AK286" s="6"/>
     </row>
-    <row r="287" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -11866,7 +11867,7 @@
       <c r="AJ287" s="6"/>
       <c r="AK287" s="6"/>
     </row>
-    <row r="288" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -11904,7 +11905,7 @@
       <c r="AJ288" s="6"/>
       <c r="AK288" s="6"/>
     </row>
-    <row r="289" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -11942,7 +11943,7 @@
       <c r="AJ289" s="6"/>
       <c r="AK289" s="6"/>
     </row>
-    <row r="290" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -11980,7 +11981,7 @@
       <c r="AJ290" s="6"/>
       <c r="AK290" s="6"/>
     </row>
-    <row r="291" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -12018,7 +12019,7 @@
       <c r="AJ291" s="6"/>
       <c r="AK291" s="6"/>
     </row>
-    <row r="292" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -12056,7 +12057,7 @@
       <c r="AJ292" s="6"/>
       <c r="AK292" s="6"/>
     </row>
-    <row r="293" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -12094,7 +12095,7 @@
       <c r="AJ293" s="6"/>
       <c r="AK293" s="6"/>
     </row>
-    <row r="294" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -12132,7 +12133,7 @@
       <c r="AJ294" s="6"/>
       <c r="AK294" s="6"/>
     </row>
-    <row r="295" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -12170,7 +12171,7 @@
       <c r="AJ295" s="6"/>
       <c r="AK295" s="6"/>
     </row>
-    <row r="296" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -12208,7 +12209,7 @@
       <c r="AJ296" s="6"/>
       <c r="AK296" s="6"/>
     </row>
-    <row r="297" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -12246,7 +12247,7 @@
       <c r="AJ297" s="6"/>
       <c r="AK297" s="6"/>
     </row>
-    <row r="298" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -12284,7 +12285,7 @@
       <c r="AJ298" s="6"/>
       <c r="AK298" s="6"/>
     </row>
-    <row r="299" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -12322,7 +12323,7 @@
       <c r="AJ299" s="6"/>
       <c r="AK299" s="6"/>
     </row>
-    <row r="300" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -12360,7 +12361,7 @@
       <c r="AJ300" s="6"/>
       <c r="AK300" s="6"/>
     </row>
-    <row r="301" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -12398,7 +12399,7 @@
       <c r="AJ301" s="6"/>
       <c r="AK301" s="6"/>
     </row>
-    <row r="302" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -12436,7 +12437,7 @@
       <c r="AJ302" s="6"/>
       <c r="AK302" s="6"/>
     </row>
-    <row r="303" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -12474,7 +12475,7 @@
       <c r="AJ303" s="6"/>
       <c r="AK303" s="6"/>
     </row>
-    <row r="304" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -12512,7 +12513,7 @@
       <c r="AJ304" s="6"/>
       <c r="AK304" s="6"/>
     </row>
-    <row r="305" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -12550,7 +12551,7 @@
       <c r="AJ305" s="6"/>
       <c r="AK305" s="6"/>
     </row>
-    <row r="306" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -12588,7 +12589,7 @@
       <c r="AJ306" s="6"/>
       <c r="AK306" s="6"/>
     </row>
-    <row r="307" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -12626,7 +12627,7 @@
       <c r="AJ307" s="6"/>
       <c r="AK307" s="6"/>
     </row>
-    <row r="308" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -12664,7 +12665,7 @@
       <c r="AJ308" s="6"/>
       <c r="AK308" s="6"/>
     </row>
-    <row r="309" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -12702,7 +12703,7 @@
       <c r="AJ309" s="6"/>
       <c r="AK309" s="6"/>
     </row>
-    <row r="310" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -12740,7 +12741,7 @@
       <c r="AJ310" s="6"/>
       <c r="AK310" s="6"/>
     </row>
-    <row r="311" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -12778,7 +12779,7 @@
       <c r="AJ311" s="6"/>
       <c r="AK311" s="6"/>
     </row>
-    <row r="312" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -12816,7 +12817,7 @@
       <c r="AJ312" s="6"/>
       <c r="AK312" s="6"/>
     </row>
-    <row r="313" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -12854,7 +12855,7 @@
       <c r="AJ313" s="6"/>
       <c r="AK313" s="6"/>
     </row>
-    <row r="314" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -12892,7 +12893,7 @@
       <c r="AJ314" s="6"/>
       <c r="AK314" s="6"/>
     </row>
-    <row r="315" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -12930,7 +12931,7 @@
       <c r="AJ315" s="6"/>
       <c r="AK315" s="6"/>
     </row>
-    <row r="316" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -12968,7 +12969,7 @@
       <c r="AJ316" s="6"/>
       <c r="AK316" s="6"/>
     </row>
-    <row r="317" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -13006,7 +13007,7 @@
       <c r="AJ317" s="6"/>
       <c r="AK317" s="6"/>
     </row>
-    <row r="318" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -13044,7 +13045,7 @@
       <c r="AJ318" s="6"/>
       <c r="AK318" s="6"/>
     </row>
-    <row r="319" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -13082,7 +13083,7 @@
       <c r="AJ319" s="6"/>
       <c r="AK319" s="6"/>
     </row>
-    <row r="320" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -13120,7 +13121,7 @@
       <c r="AJ320" s="6"/>
       <c r="AK320" s="6"/>
     </row>
-    <row r="321" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -13158,7 +13159,7 @@
       <c r="AJ321" s="6"/>
       <c r="AK321" s="6"/>
     </row>
-    <row r="322" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -13196,7 +13197,7 @@
       <c r="AJ322" s="6"/>
       <c r="AK322" s="6"/>
     </row>
-    <row r="323" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -13234,7 +13235,7 @@
       <c r="AJ323" s="6"/>
       <c r="AK323" s="6"/>
     </row>
-    <row r="324" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -13272,7 +13273,7 @@
       <c r="AJ324" s="6"/>
       <c r="AK324" s="6"/>
     </row>
-    <row r="325" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -13310,7 +13311,7 @@
       <c r="AJ325" s="6"/>
       <c r="AK325" s="6"/>
     </row>
-    <row r="326" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -13348,7 +13349,7 @@
       <c r="AJ326" s="6"/>
       <c r="AK326" s="6"/>
     </row>
-    <row r="327" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -13386,7 +13387,7 @@
       <c r="AJ327" s="6"/>
       <c r="AK327" s="6"/>
     </row>
-    <row r="328" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -13424,7 +13425,7 @@
       <c r="AJ328" s="6"/>
       <c r="AK328" s="6"/>
     </row>
-    <row r="329" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -13462,7 +13463,7 @@
       <c r="AJ329" s="6"/>
       <c r="AK329" s="6"/>
     </row>
-    <row r="330" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -13500,7 +13501,7 @@
       <c r="AJ330" s="6"/>
       <c r="AK330" s="6"/>
     </row>
-    <row r="331" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -13538,7 +13539,7 @@
       <c r="AJ331" s="6"/>
       <c r="AK331" s="6"/>
     </row>
-    <row r="332" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -13576,7 +13577,7 @@
       <c r="AJ332" s="6"/>
       <c r="AK332" s="6"/>
     </row>
-    <row r="333" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -13614,7 +13615,7 @@
       <c r="AJ333" s="6"/>
       <c r="AK333" s="6"/>
     </row>
-    <row r="334" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -13652,7 +13653,7 @@
       <c r="AJ334" s="6"/>
       <c r="AK334" s="6"/>
     </row>
-    <row r="335" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -13690,7 +13691,7 @@
       <c r="AJ335" s="6"/>
       <c r="AK335" s="6"/>
     </row>
-    <row r="336" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -13728,7 +13729,7 @@
       <c r="AJ336" s="6"/>
       <c r="AK336" s="6"/>
     </row>
-    <row r="337" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -13766,7 +13767,7 @@
       <c r="AJ337" s="6"/>
       <c r="AK337" s="6"/>
     </row>
-    <row r="338" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -13804,7 +13805,7 @@
       <c r="AJ338" s="6"/>
       <c r="AK338" s="6"/>
     </row>
-    <row r="339" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -13842,7 +13843,7 @@
       <c r="AJ339" s="6"/>
       <c r="AK339" s="6"/>
     </row>
-    <row r="340" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -13880,7 +13881,7 @@
       <c r="AJ340" s="6"/>
       <c r="AK340" s="6"/>
     </row>
-    <row r="341" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -13918,7 +13919,7 @@
       <c r="AJ341" s="6"/>
       <c r="AK341" s="6"/>
     </row>
-    <row r="342" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -13956,7 +13957,7 @@
       <c r="AJ342" s="6"/>
       <c r="AK342" s="6"/>
     </row>
-    <row r="343" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -13994,7 +13995,7 @@
       <c r="AJ343" s="6"/>
       <c r="AK343" s="6"/>
     </row>
-    <row r="344" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -14032,7 +14033,7 @@
       <c r="AJ344" s="6"/>
       <c r="AK344" s="6"/>
     </row>
-    <row r="345" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -14070,7 +14071,7 @@
       <c r="AJ345" s="6"/>
       <c r="AK345" s="6"/>
     </row>
-    <row r="346" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -14108,7 +14109,7 @@
       <c r="AJ346" s="6"/>
       <c r="AK346" s="6"/>
     </row>
-    <row r="347" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -14146,7 +14147,7 @@
       <c r="AJ347" s="6"/>
       <c r="AK347" s="6"/>
     </row>
-    <row r="348" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -14184,7 +14185,7 @@
       <c r="AJ348" s="6"/>
       <c r="AK348" s="6"/>
     </row>
-    <row r="349" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -14222,7 +14223,7 @@
       <c r="AJ349" s="6"/>
       <c r="AK349" s="6"/>
     </row>
-    <row r="350" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -14260,7 +14261,7 @@
       <c r="AJ350" s="6"/>
       <c r="AK350" s="6"/>
     </row>
-    <row r="351" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -14298,7 +14299,7 @@
       <c r="AJ351" s="6"/>
       <c r="AK351" s="6"/>
     </row>
-    <row r="352" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -14336,7 +14337,7 @@
       <c r="AJ352" s="6"/>
       <c r="AK352" s="6"/>
     </row>
-    <row r="353" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -14374,7 +14375,7 @@
       <c r="AJ353" s="6"/>
       <c r="AK353" s="6"/>
     </row>
-    <row r="354" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -14412,7 +14413,7 @@
       <c r="AJ354" s="6"/>
       <c r="AK354" s="6"/>
     </row>
-    <row r="355" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -14450,7 +14451,7 @@
       <c r="AJ355" s="6"/>
       <c r="AK355" s="6"/>
     </row>
-    <row r="356" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -14488,7 +14489,7 @@
       <c r="AJ356" s="6"/>
       <c r="AK356" s="6"/>
     </row>
-    <row r="357" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -14526,7 +14527,7 @@
       <c r="AJ357" s="6"/>
       <c r="AK357" s="6"/>
     </row>
-    <row r="358" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -14564,7 +14565,7 @@
       <c r="AJ358" s="6"/>
       <c r="AK358" s="6"/>
     </row>
-    <row r="359" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -14602,7 +14603,7 @@
       <c r="AJ359" s="6"/>
       <c r="AK359" s="6"/>
     </row>
-    <row r="360" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -14640,7 +14641,7 @@
       <c r="AJ360" s="6"/>
       <c r="AK360" s="6"/>
     </row>
-    <row r="361" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -14678,7 +14679,7 @@
       <c r="AJ361" s="6"/>
       <c r="AK361" s="6"/>
     </row>
-    <row r="362" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -14716,7 +14717,7 @@
       <c r="AJ362" s="6"/>
       <c r="AK362" s="6"/>
     </row>
-    <row r="363" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -14754,7 +14755,7 @@
       <c r="AJ363" s="6"/>
       <c r="AK363" s="6"/>
     </row>
-    <row r="364" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -14792,7 +14793,7 @@
       <c r="AJ364" s="6"/>
       <c r="AK364" s="6"/>
     </row>
-    <row r="365" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -14830,7 +14831,7 @@
       <c r="AJ365" s="6"/>
       <c r="AK365" s="6"/>
     </row>
-    <row r="366" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -14868,7 +14869,7 @@
       <c r="AJ366" s="6"/>
       <c r="AK366" s="6"/>
     </row>
-    <row r="367" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -14906,7 +14907,7 @@
       <c r="AJ367" s="6"/>
       <c r="AK367" s="6"/>
     </row>
-    <row r="368" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -14944,7 +14945,7 @@
       <c r="AJ368" s="6"/>
       <c r="AK368" s="6"/>
     </row>
-    <row r="369" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -14982,7 +14983,7 @@
       <c r="AJ369" s="6"/>
       <c r="AK369" s="6"/>
     </row>
-    <row r="370" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -15020,7 +15021,7 @@
       <c r="AJ370" s="6"/>
       <c r="AK370" s="6"/>
     </row>
-    <row r="371" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -15058,7 +15059,7 @@
       <c r="AJ371" s="6"/>
       <c r="AK371" s="6"/>
     </row>
-    <row r="372" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -15096,7 +15097,7 @@
       <c r="AJ372" s="6"/>
       <c r="AK372" s="6"/>
     </row>
-    <row r="373" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -15134,7 +15135,7 @@
       <c r="AJ373" s="6"/>
       <c r="AK373" s="6"/>
     </row>
-    <row r="374" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -15172,7 +15173,7 @@
       <c r="AJ374" s="6"/>
       <c r="AK374" s="6"/>
     </row>
-    <row r="375" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -15210,7 +15211,7 @@
       <c r="AJ375" s="6"/>
       <c r="AK375" s="6"/>
     </row>
-    <row r="376" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -15248,7 +15249,7 @@
       <c r="AJ376" s="6"/>
       <c r="AK376" s="6"/>
     </row>
-    <row r="377" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -15286,7 +15287,7 @@
       <c r="AJ377" s="6"/>
       <c r="AK377" s="6"/>
     </row>
-    <row r="378" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -15324,7 +15325,7 @@
       <c r="AJ378" s="6"/>
       <c r="AK378" s="6"/>
     </row>
-    <row r="379" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -15362,7 +15363,7 @@
       <c r="AJ379" s="6"/>
       <c r="AK379" s="6"/>
     </row>
-    <row r="380" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -15400,7 +15401,7 @@
       <c r="AJ380" s="6"/>
       <c r="AK380" s="6"/>
     </row>
-    <row r="381" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -15438,7 +15439,7 @@
       <c r="AJ381" s="6"/>
       <c r="AK381" s="6"/>
     </row>
-    <row r="382" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -15476,7 +15477,7 @@
       <c r="AJ382" s="6"/>
       <c r="AK382" s="6"/>
     </row>
-    <row r="383" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -15514,7 +15515,7 @@
       <c r="AJ383" s="6"/>
       <c r="AK383" s="6"/>
     </row>
-    <row r="384" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -15552,7 +15553,7 @@
       <c r="AJ384" s="6"/>
       <c r="AK384" s="6"/>
     </row>
-    <row r="385" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -15590,7 +15591,7 @@
       <c r="AJ385" s="6"/>
       <c r="AK385" s="6"/>
     </row>
-    <row r="386" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -15628,7 +15629,7 @@
       <c r="AJ386" s="6"/>
       <c r="AK386" s="6"/>
     </row>
-    <row r="387" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -15666,7 +15667,7 @@
       <c r="AJ387" s="6"/>
       <c r="AK387" s="6"/>
     </row>
-    <row r="388" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -15704,7 +15705,7 @@
       <c r="AJ388" s="6"/>
       <c r="AK388" s="6"/>
     </row>
-    <row r="389" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -15742,7 +15743,7 @@
       <c r="AJ389" s="6"/>
       <c r="AK389" s="6"/>
     </row>
-    <row r="390" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -15780,7 +15781,7 @@
       <c r="AJ390" s="6"/>
       <c r="AK390" s="6"/>
     </row>
-    <row r="391" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -15818,7 +15819,7 @@
       <c r="AJ391" s="6"/>
       <c r="AK391" s="6"/>
     </row>
-    <row r="392" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -15856,7 +15857,7 @@
       <c r="AJ392" s="6"/>
       <c r="AK392" s="6"/>
     </row>
-    <row r="393" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -15894,7 +15895,7 @@
       <c r="AJ393" s="6"/>
       <c r="AK393" s="6"/>
     </row>
-    <row r="394" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -15932,7 +15933,7 @@
       <c r="AJ394" s="6"/>
       <c r="AK394" s="6"/>
     </row>
-    <row r="395" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -15970,7 +15971,7 @@
       <c r="AJ395" s="6"/>
       <c r="AK395" s="6"/>
     </row>
-    <row r="396" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -16008,7 +16009,7 @@
       <c r="AJ396" s="6"/>
       <c r="AK396" s="6"/>
     </row>
-    <row r="397" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -16046,7 +16047,7 @@
       <c r="AJ397" s="6"/>
       <c r="AK397" s="6"/>
     </row>
-    <row r="398" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -16084,7 +16085,7 @@
       <c r="AJ398" s="6"/>
       <c r="AK398" s="6"/>
     </row>
-    <row r="399" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -16122,7 +16123,7 @@
       <c r="AJ399" s="6"/>
       <c r="AK399" s="6"/>
     </row>
-    <row r="400" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -16160,7 +16161,7 @@
       <c r="AJ400" s="6"/>
       <c r="AK400" s="6"/>
     </row>
-    <row r="401" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -16198,7 +16199,7 @@
       <c r="AJ401" s="6"/>
       <c r="AK401" s="6"/>
     </row>
-    <row r="402" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -16236,7 +16237,7 @@
       <c r="AJ402" s="6"/>
       <c r="AK402" s="6"/>
     </row>
-    <row r="403" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -16274,7 +16275,7 @@
       <c r="AJ403" s="6"/>
       <c r="AK403" s="6"/>
     </row>
-    <row r="404" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -16312,7 +16313,7 @@
       <c r="AJ404" s="6"/>
       <c r="AK404" s="6"/>
     </row>
-    <row r="405" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -16350,7 +16351,7 @@
       <c r="AJ405" s="6"/>
       <c r="AK405" s="6"/>
     </row>
-    <row r="406" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -16388,7 +16389,7 @@
       <c r="AJ406" s="6"/>
       <c r="AK406" s="6"/>
     </row>
-    <row r="407" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -16426,7 +16427,7 @@
       <c r="AJ407" s="6"/>
       <c r="AK407" s="6"/>
     </row>
-    <row r="408" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -16464,7 +16465,7 @@
       <c r="AJ408" s="6"/>
       <c r="AK408" s="6"/>
     </row>
-    <row r="409" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -16502,7 +16503,7 @@
       <c r="AJ409" s="6"/>
       <c r="AK409" s="6"/>
     </row>
-    <row r="410" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -16540,7 +16541,7 @@
       <c r="AJ410" s="6"/>
       <c r="AK410" s="6"/>
     </row>
-    <row r="411" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -16578,7 +16579,7 @@
       <c r="AJ411" s="6"/>
       <c r="AK411" s="6"/>
     </row>
-    <row r="412" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -16616,7 +16617,7 @@
       <c r="AJ412" s="6"/>
       <c r="AK412" s="6"/>
     </row>
-    <row r="413" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -16654,7 +16655,7 @@
       <c r="AJ413" s="6"/>
       <c r="AK413" s="6"/>
     </row>
-    <row r="414" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -16692,7 +16693,7 @@
       <c r="AJ414" s="6"/>
       <c r="AK414" s="6"/>
     </row>
-    <row r="415" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -16730,7 +16731,7 @@
       <c r="AJ415" s="6"/>
       <c r="AK415" s="6"/>
     </row>
-    <row r="416" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -16768,7 +16769,7 @@
       <c r="AJ416" s="6"/>
       <c r="AK416" s="6"/>
     </row>
-    <row r="417" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -16806,7 +16807,7 @@
       <c r="AJ417" s="6"/>
       <c r="AK417" s="6"/>
     </row>
-    <row r="418" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -16844,7 +16845,7 @@
       <c r="AJ418" s="6"/>
       <c r="AK418" s="6"/>
     </row>
-    <row r="419" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -16882,7 +16883,7 @@
       <c r="AJ419" s="6"/>
       <c r="AK419" s="6"/>
     </row>
-    <row r="420" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -16920,7 +16921,7 @@
       <c r="AJ420" s="6"/>
       <c r="AK420" s="6"/>
     </row>
-    <row r="421" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -16958,7 +16959,7 @@
       <c r="AJ421" s="6"/>
       <c r="AK421" s="6"/>
     </row>
-    <row r="422" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -16996,7 +16997,7 @@
       <c r="AJ422" s="6"/>
       <c r="AK422" s="6"/>
     </row>
-    <row r="423" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -17034,7 +17035,7 @@
       <c r="AJ423" s="6"/>
       <c r="AK423" s="6"/>
     </row>
-    <row r="424" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -17072,7 +17073,7 @@
       <c r="AJ424" s="6"/>
       <c r="AK424" s="6"/>
     </row>
-    <row r="425" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -17110,7 +17111,7 @@
       <c r="AJ425" s="6"/>
       <c r="AK425" s="6"/>
     </row>
-    <row r="426" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -17148,7 +17149,7 @@
       <c r="AJ426" s="6"/>
       <c r="AK426" s="6"/>
     </row>
-    <row r="427" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -17186,7 +17187,7 @@
       <c r="AJ427" s="6"/>
       <c r="AK427" s="6"/>
     </row>
-    <row r="428" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -17224,7 +17225,7 @@
       <c r="AJ428" s="6"/>
       <c r="AK428" s="6"/>
     </row>
-    <row r="429" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -17262,7 +17263,7 @@
       <c r="AJ429" s="6"/>
       <c r="AK429" s="6"/>
     </row>
-    <row r="430" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -17300,7 +17301,7 @@
       <c r="AJ430" s="6"/>
       <c r="AK430" s="6"/>
     </row>
-    <row r="431" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -17338,7 +17339,7 @@
       <c r="AJ431" s="6"/>
       <c r="AK431" s="6"/>
     </row>
-    <row r="432" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -17376,7 +17377,7 @@
       <c r="AJ432" s="6"/>
       <c r="AK432" s="6"/>
     </row>
-    <row r="433" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -17414,7 +17415,7 @@
       <c r="AJ433" s="6"/>
       <c r="AK433" s="6"/>
     </row>
-    <row r="434" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -17452,7 +17453,7 @@
       <c r="AJ434" s="6"/>
       <c r="AK434" s="6"/>
     </row>
-    <row r="435" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -17490,7 +17491,7 @@
       <c r="AJ435" s="6"/>
       <c r="AK435" s="6"/>
     </row>
-    <row r="436" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -17528,7 +17529,7 @@
       <c r="AJ436" s="6"/>
       <c r="AK436" s="6"/>
     </row>
-    <row r="437" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -17566,7 +17567,7 @@
       <c r="AJ437" s="6"/>
       <c r="AK437" s="6"/>
     </row>
-    <row r="438" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -17604,7 +17605,7 @@
       <c r="AJ438" s="6"/>
       <c r="AK438" s="6"/>
     </row>
-    <row r="439" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -17642,7 +17643,7 @@
       <c r="AJ439" s="6"/>
       <c r="AK439" s="6"/>
     </row>
-    <row r="440" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -17680,7 +17681,7 @@
       <c r="AJ440" s="6"/>
       <c r="AK440" s="6"/>
     </row>
-    <row r="441" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -17718,7 +17719,7 @@
       <c r="AJ441" s="6"/>
       <c r="AK441" s="6"/>
     </row>
-    <row r="442" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -17756,7 +17757,7 @@
       <c r="AJ442" s="6"/>
       <c r="AK442" s="6"/>
     </row>
-    <row r="443" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -17794,7 +17795,7 @@
       <c r="AJ443" s="6"/>
       <c r="AK443" s="6"/>
     </row>
-    <row r="444" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -17832,7 +17833,7 @@
       <c r="AJ444" s="6"/>
       <c r="AK444" s="6"/>
     </row>
-    <row r="445" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -17870,7 +17871,7 @@
       <c r="AJ445" s="6"/>
       <c r="AK445" s="6"/>
     </row>
-    <row r="446" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -17908,7 +17909,7 @@
       <c r="AJ446" s="6"/>
       <c r="AK446" s="6"/>
     </row>
-    <row r="447" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -17946,7 +17947,7 @@
       <c r="AJ447" s="6"/>
       <c r="AK447" s="6"/>
     </row>
-    <row r="448" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -17984,7 +17985,7 @@
       <c r="AJ448" s="6"/>
       <c r="AK448" s="6"/>
     </row>
-    <row r="449" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -18022,7 +18023,7 @@
       <c r="AJ449" s="6"/>
       <c r="AK449" s="6"/>
     </row>
-    <row r="450" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -18060,7 +18061,7 @@
       <c r="AJ450" s="6"/>
       <c r="AK450" s="6"/>
     </row>
-    <row r="451" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -18098,7 +18099,7 @@
       <c r="AJ451" s="6"/>
       <c r="AK451" s="6"/>
     </row>
-    <row r="452" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -18136,7 +18137,7 @@
       <c r="AJ452" s="6"/>
       <c r="AK452" s="6"/>
     </row>
-    <row r="453" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -18174,7 +18175,7 @@
       <c r="AJ453" s="6"/>
       <c r="AK453" s="6"/>
     </row>
-    <row r="454" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -18212,7 +18213,7 @@
       <c r="AJ454" s="6"/>
       <c r="AK454" s="6"/>
     </row>
-    <row r="455" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -18250,7 +18251,7 @@
       <c r="AJ455" s="6"/>
       <c r="AK455" s="6"/>
     </row>
-    <row r="456" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -18288,7 +18289,7 @@
       <c r="AJ456" s="6"/>
       <c r="AK456" s="6"/>
     </row>
-    <row r="457" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -18326,7 +18327,7 @@
       <c r="AJ457" s="6"/>
       <c r="AK457" s="6"/>
     </row>
-    <row r="458" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -18364,7 +18365,7 @@
       <c r="AJ458" s="6"/>
       <c r="AK458" s="6"/>
     </row>
-    <row r="459" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -18402,7 +18403,7 @@
       <c r="AJ459" s="6"/>
       <c r="AK459" s="6"/>
     </row>
-    <row r="460" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -18440,7 +18441,7 @@
       <c r="AJ460" s="6"/>
       <c r="AK460" s="6"/>
     </row>
-    <row r="461" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -18478,7 +18479,7 @@
       <c r="AJ461" s="6"/>
       <c r="AK461" s="6"/>
     </row>
-    <row r="462" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -18516,7 +18517,7 @@
       <c r="AJ462" s="6"/>
       <c r="AK462" s="6"/>
     </row>
-    <row r="463" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -18554,7 +18555,7 @@
       <c r="AJ463" s="6"/>
       <c r="AK463" s="6"/>
     </row>
-    <row r="464" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -18592,7 +18593,7 @@
       <c r="AJ464" s="6"/>
       <c r="AK464" s="6"/>
     </row>
-    <row r="465" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -18630,7 +18631,7 @@
       <c r="AJ465" s="6"/>
       <c r="AK465" s="6"/>
     </row>
-    <row r="466" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -18668,7 +18669,7 @@
       <c r="AJ466" s="6"/>
       <c r="AK466" s="6"/>
     </row>
-    <row r="467" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -18706,7 +18707,7 @@
       <c r="AJ467" s="6"/>
       <c r="AK467" s="6"/>
     </row>
-    <row r="468" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -18744,7 +18745,7 @@
       <c r="AJ468" s="6"/>
       <c r="AK468" s="6"/>
     </row>
-    <row r="469" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -18782,7 +18783,7 @@
       <c r="AJ469" s="6"/>
       <c r="AK469" s="6"/>
     </row>
-    <row r="470" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -18820,7 +18821,7 @@
       <c r="AJ470" s="6"/>
       <c r="AK470" s="6"/>
     </row>
-    <row r="471" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -18858,7 +18859,7 @@
       <c r="AJ471" s="6"/>
       <c r="AK471" s="6"/>
     </row>
-    <row r="472" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -18896,7 +18897,7 @@
       <c r="AJ472" s="6"/>
       <c r="AK472" s="6"/>
     </row>
-    <row r="473" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -18934,7 +18935,7 @@
       <c r="AJ473" s="6"/>
       <c r="AK473" s="6"/>
     </row>
-    <row r="474" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -18972,7 +18973,7 @@
       <c r="AJ474" s="6"/>
       <c r="AK474" s="6"/>
     </row>
-    <row r="475" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -19010,7 +19011,7 @@
       <c r="AJ475" s="6"/>
       <c r="AK475" s="6"/>
     </row>
-    <row r="476" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -19048,7 +19049,7 @@
       <c r="AJ476" s="6"/>
       <c r="AK476" s="6"/>
     </row>
-    <row r="477" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -19086,7 +19087,7 @@
       <c r="AJ477" s="6"/>
       <c r="AK477" s="6"/>
     </row>
-    <row r="478" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -19124,7 +19125,7 @@
       <c r="AJ478" s="6"/>
       <c r="AK478" s="6"/>
     </row>
-    <row r="479" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -19162,7 +19163,7 @@
       <c r="AJ479" s="6"/>
       <c r="AK479" s="6"/>
     </row>
-    <row r="480" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -19200,7 +19201,7 @@
       <c r="AJ480" s="6"/>
       <c r="AK480" s="6"/>
     </row>
-    <row r="481" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -19238,7 +19239,7 @@
       <c r="AJ481" s="6"/>
       <c r="AK481" s="6"/>
     </row>
-    <row r="482" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -19276,7 +19277,7 @@
       <c r="AJ482" s="6"/>
       <c r="AK482" s="6"/>
     </row>
-    <row r="483" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -19314,7 +19315,7 @@
       <c r="AJ483" s="6"/>
       <c r="AK483" s="6"/>
     </row>
-    <row r="484" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -19352,7 +19353,7 @@
       <c r="AJ484" s="6"/>
       <c r="AK484" s="6"/>
     </row>
-    <row r="485" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -19390,7 +19391,7 @@
       <c r="AJ485" s="6"/>
       <c r="AK485" s="6"/>
     </row>
-    <row r="486" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -19428,7 +19429,7 @@
       <c r="AJ486" s="6"/>
       <c r="AK486" s="6"/>
     </row>
-    <row r="487" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -19466,7 +19467,7 @@
       <c r="AJ487" s="6"/>
       <c r="AK487" s="6"/>
     </row>
-    <row r="488" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -19504,7 +19505,7 @@
       <c r="AJ488" s="6"/>
       <c r="AK488" s="6"/>
     </row>
-    <row r="489" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -19542,7 +19543,7 @@
       <c r="AJ489" s="6"/>
       <c r="AK489" s="6"/>
     </row>
-    <row r="490" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -19580,7 +19581,7 @@
       <c r="AJ490" s="6"/>
       <c r="AK490" s="6"/>
     </row>
-    <row r="491" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -19618,7 +19619,7 @@
       <c r="AJ491" s="6"/>
       <c r="AK491" s="6"/>
     </row>
-    <row r="492" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -19656,7 +19657,7 @@
       <c r="AJ492" s="6"/>
       <c r="AK492" s="6"/>
     </row>
-    <row r="493" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -19694,7 +19695,7 @@
       <c r="AJ493" s="6"/>
       <c r="AK493" s="6"/>
     </row>
-    <row r="494" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -19732,7 +19733,7 @@
       <c r="AJ494" s="6"/>
       <c r="AK494" s="6"/>
     </row>
-    <row r="495" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -19770,7 +19771,7 @@
       <c r="AJ495" s="6"/>
       <c r="AK495" s="6"/>
     </row>
-    <row r="496" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -19808,7 +19809,7 @@
       <c r="AJ496" s="6"/>
       <c r="AK496" s="6"/>
     </row>
-    <row r="497" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -19846,7 +19847,7 @@
       <c r="AJ497" s="6"/>
       <c r="AK497" s="6"/>
     </row>
-    <row r="498" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -19884,7 +19885,7 @@
       <c r="AJ498" s="6"/>
       <c r="AK498" s="6"/>
     </row>
-    <row r="499" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -19922,7 +19923,7 @@
       <c r="AJ499" s="6"/>
       <c r="AK499" s="6"/>
     </row>
-    <row r="500" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -19960,7 +19961,7 @@
       <c r="AJ500" s="6"/>
       <c r="AK500" s="6"/>
     </row>
-    <row r="501" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -19998,7 +19999,7 @@
       <c r="AJ501" s="6"/>
       <c r="AK501" s="6"/>
     </row>
-    <row r="502" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -20036,7 +20037,7 @@
       <c r="AJ502" s="6"/>
       <c r="AK502" s="6"/>
     </row>
-    <row r="503" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -20074,7 +20075,7 @@
       <c r="AJ503" s="6"/>
       <c r="AK503" s="6"/>
     </row>
-    <row r="504" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -20112,7 +20113,7 @@
       <c r="AJ504" s="6"/>
       <c r="AK504" s="6"/>
     </row>
-    <row r="505" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -20150,7 +20151,7 @@
       <c r="AJ505" s="6"/>
       <c r="AK505" s="6"/>
     </row>
-    <row r="506" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -20188,7 +20189,7 @@
       <c r="AJ506" s="6"/>
       <c r="AK506" s="6"/>
     </row>
-    <row r="507" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -20226,7 +20227,7 @@
       <c r="AJ507" s="6"/>
       <c r="AK507" s="6"/>
     </row>
-    <row r="508" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -20264,7 +20265,7 @@
       <c r="AJ508" s="6"/>
       <c r="AK508" s="6"/>
     </row>
-    <row r="509" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -20302,7 +20303,7 @@
       <c r="AJ509" s="6"/>
       <c r="AK509" s="6"/>
     </row>
-    <row r="510" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -20340,7 +20341,7 @@
       <c r="AJ510" s="6"/>
       <c r="AK510" s="6"/>
     </row>
-    <row r="511" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -20378,7 +20379,7 @@
       <c r="AJ511" s="6"/>
       <c r="AK511" s="6"/>
     </row>
-    <row r="512" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -20416,7 +20417,7 @@
       <c r="AJ512" s="6"/>
       <c r="AK512" s="6"/>
     </row>
-    <row r="513" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -20454,7 +20455,7 @@
       <c r="AJ513" s="6"/>
       <c r="AK513" s="6"/>
     </row>
-    <row r="514" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -20492,7 +20493,7 @@
       <c r="AJ514" s="6"/>
       <c r="AK514" s="6"/>
     </row>
-    <row r="515" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -20530,7 +20531,7 @@
       <c r="AJ515" s="6"/>
       <c r="AK515" s="6"/>
     </row>
-    <row r="516" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -20568,7 +20569,7 @@
       <c r="AJ516" s="6"/>
       <c r="AK516" s="6"/>
     </row>
-    <row r="517" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -20606,7 +20607,7 @@
       <c r="AJ517" s="6"/>
       <c r="AK517" s="6"/>
     </row>
-    <row r="518" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -20644,7 +20645,7 @@
       <c r="AJ518" s="6"/>
       <c r="AK518" s="6"/>
     </row>
-    <row r="519" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -20682,7 +20683,7 @@
       <c r="AJ519" s="6"/>
       <c r="AK519" s="6"/>
     </row>
-    <row r="520" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -20720,7 +20721,7 @@
       <c r="AJ520" s="6"/>
       <c r="AK520" s="6"/>
     </row>
-    <row r="521" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -20758,7 +20759,7 @@
       <c r="AJ521" s="6"/>
       <c r="AK521" s="6"/>
     </row>
-    <row r="522" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -20796,7 +20797,7 @@
       <c r="AJ522" s="6"/>
       <c r="AK522" s="6"/>
     </row>
-    <row r="523" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -20834,7 +20835,7 @@
       <c r="AJ523" s="6"/>
       <c r="AK523" s="6"/>
     </row>
-    <row r="524" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -20872,7 +20873,7 @@
       <c r="AJ524" s="6"/>
       <c r="AK524" s="6"/>
     </row>
-    <row r="525" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -20910,7 +20911,7 @@
       <c r="AJ525" s="6"/>
       <c r="AK525" s="6"/>
     </row>
-    <row r="526" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -20948,7 +20949,7 @@
       <c r="AJ526" s="6"/>
       <c r="AK526" s="6"/>
     </row>
-    <row r="527" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -20986,7 +20987,7 @@
       <c r="AJ527" s="6"/>
       <c r="AK527" s="6"/>
     </row>
-    <row r="528" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -21024,7 +21025,7 @@
       <c r="AJ528" s="6"/>
       <c r="AK528" s="6"/>
     </row>
-    <row r="529" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -21062,7 +21063,7 @@
       <c r="AJ529" s="6"/>
       <c r="AK529" s="6"/>
     </row>
-    <row r="530" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -21100,7 +21101,7 @@
       <c r="AJ530" s="6"/>
       <c r="AK530" s="6"/>
     </row>
-    <row r="531" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -21138,7 +21139,7 @@
       <c r="AJ531" s="6"/>
       <c r="AK531" s="6"/>
     </row>
-    <row r="532" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -21176,7 +21177,7 @@
       <c r="AJ532" s="6"/>
       <c r="AK532" s="6"/>
     </row>
-    <row r="533" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -21214,7 +21215,7 @@
       <c r="AJ533" s="6"/>
       <c r="AK533" s="6"/>
     </row>
-    <row r="534" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -21252,7 +21253,7 @@
       <c r="AJ534" s="6"/>
       <c r="AK534" s="6"/>
     </row>
-    <row r="535" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -21290,7 +21291,7 @@
       <c r="AJ535" s="6"/>
       <c r="AK535" s="6"/>
     </row>
-    <row r="536" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -21328,7 +21329,7 @@
       <c r="AJ536" s="6"/>
       <c r="AK536" s="6"/>
     </row>
-    <row r="537" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -21366,7 +21367,7 @@
       <c r="AJ537" s="6"/>
       <c r="AK537" s="6"/>
     </row>
-    <row r="538" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -21404,7 +21405,7 @@
       <c r="AJ538" s="6"/>
       <c r="AK538" s="6"/>
     </row>
-    <row r="539" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -21442,7 +21443,7 @@
       <c r="AJ539" s="6"/>
       <c r="AK539" s="6"/>
     </row>
-    <row r="540" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -21480,7 +21481,7 @@
       <c r="AJ540" s="6"/>
       <c r="AK540" s="6"/>
     </row>
-    <row r="541" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -21518,7 +21519,7 @@
       <c r="AJ541" s="6"/>
       <c r="AK541" s="6"/>
     </row>
-    <row r="542" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -21556,7 +21557,7 @@
       <c r="AJ542" s="6"/>
       <c r="AK542" s="6"/>
     </row>
-    <row r="543" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -21594,7 +21595,7 @@
       <c r="AJ543" s="6"/>
       <c r="AK543" s="6"/>
     </row>
-    <row r="544" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -21632,7 +21633,7 @@
       <c r="AJ544" s="6"/>
       <c r="AK544" s="6"/>
     </row>
-    <row r="545" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -21670,7 +21671,7 @@
       <c r="AJ545" s="6"/>
       <c r="AK545" s="6"/>
     </row>
-    <row r="546" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -21708,7 +21709,7 @@
       <c r="AJ546" s="6"/>
       <c r="AK546" s="6"/>
     </row>
-    <row r="547" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -21746,7 +21747,7 @@
       <c r="AJ547" s="6"/>
       <c r="AK547" s="6"/>
     </row>
-    <row r="548" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -21784,7 +21785,7 @@
       <c r="AJ548" s="6"/>
       <c r="AK548" s="6"/>
     </row>
-    <row r="549" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -21822,7 +21823,7 @@
       <c r="AJ549" s="6"/>
       <c r="AK549" s="6"/>
     </row>
-    <row r="550" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -21860,7 +21861,7 @@
       <c r="AJ550" s="6"/>
       <c r="AK550" s="6"/>
     </row>
-    <row r="551" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -21898,7 +21899,7 @@
       <c r="AJ551" s="6"/>
       <c r="AK551" s="6"/>
     </row>
-    <row r="552" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -21936,7 +21937,7 @@
       <c r="AJ552" s="6"/>
       <c r="AK552" s="6"/>
     </row>
-    <row r="553" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -21974,7 +21975,7 @@
       <c r="AJ553" s="6"/>
       <c r="AK553" s="6"/>
     </row>
-    <row r="554" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -22012,7 +22013,7 @@
       <c r="AJ554" s="6"/>
       <c r="AK554" s="6"/>
     </row>
-    <row r="555" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -22050,7 +22051,7 @@
       <c r="AJ555" s="6"/>
       <c r="AK555" s="6"/>
     </row>
-    <row r="556" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -22088,7 +22089,7 @@
       <c r="AJ556" s="6"/>
       <c r="AK556" s="6"/>
     </row>
-    <row r="557" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -22126,7 +22127,7 @@
       <c r="AJ557" s="6"/>
       <c r="AK557" s="6"/>
     </row>
-    <row r="558" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -22164,7 +22165,7 @@
       <c r="AJ558" s="6"/>
       <c r="AK558" s="6"/>
     </row>
-    <row r="559" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -22202,7 +22203,7 @@
       <c r="AJ559" s="6"/>
       <c r="AK559" s="6"/>
     </row>
-    <row r="560" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -22240,7 +22241,7 @@
       <c r="AJ560" s="6"/>
       <c r="AK560" s="6"/>
     </row>
-    <row r="561" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -22278,7 +22279,7 @@
       <c r="AJ561" s="6"/>
       <c r="AK561" s="6"/>
     </row>
-    <row r="562" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -22316,7 +22317,7 @@
       <c r="AJ562" s="6"/>
       <c r="AK562" s="6"/>
     </row>
-    <row r="563" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -22354,7 +22355,7 @@
       <c r="AJ563" s="6"/>
       <c r="AK563" s="6"/>
     </row>
-    <row r="564" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -22392,7 +22393,7 @@
       <c r="AJ564" s="6"/>
       <c r="AK564" s="6"/>
     </row>
-    <row r="565" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -22430,7 +22431,7 @@
       <c r="AJ565" s="6"/>
       <c r="AK565" s="6"/>
     </row>
-    <row r="566" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -22468,7 +22469,7 @@
       <c r="AJ566" s="6"/>
       <c r="AK566" s="6"/>
     </row>
-    <row r="567" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -22506,7 +22507,7 @@
       <c r="AJ567" s="6"/>
       <c r="AK567" s="6"/>
     </row>
-    <row r="568" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -22544,7 +22545,7 @@
       <c r="AJ568" s="6"/>
       <c r="AK568" s="6"/>
     </row>
-    <row r="569" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -22582,7 +22583,7 @@
       <c r="AJ569" s="6"/>
       <c r="AK569" s="6"/>
     </row>
-    <row r="570" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -22620,7 +22621,7 @@
       <c r="AJ570" s="6"/>
       <c r="AK570" s="6"/>
     </row>
-    <row r="571" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -22658,7 +22659,7 @@
       <c r="AJ571" s="6"/>
       <c r="AK571" s="6"/>
     </row>
-    <row r="572" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -22696,7 +22697,7 @@
       <c r="AJ572" s="6"/>
       <c r="AK572" s="6"/>
     </row>
-    <row r="573" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -22734,7 +22735,7 @@
       <c r="AJ573" s="6"/>
       <c r="AK573" s="6"/>
     </row>
-    <row r="574" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -22772,7 +22773,7 @@
       <c r="AJ574" s="6"/>
       <c r="AK574" s="6"/>
     </row>
-    <row r="575" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -22810,7 +22811,7 @@
       <c r="AJ575" s="6"/>
       <c r="AK575" s="6"/>
     </row>
-    <row r="576" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -22848,7 +22849,7 @@
       <c r="AJ576" s="6"/>
       <c r="AK576" s="6"/>
     </row>
-    <row r="577" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -22886,7 +22887,7 @@
       <c r="AJ577" s="6"/>
       <c r="AK577" s="6"/>
     </row>
-    <row r="578" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -22924,7 +22925,7 @@
       <c r="AJ578" s="6"/>
       <c r="AK578" s="6"/>
     </row>
-    <row r="579" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -22962,7 +22963,7 @@
       <c r="AJ579" s="6"/>
       <c r="AK579" s="6"/>
     </row>
-    <row r="580" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -23000,7 +23001,7 @@
       <c r="AJ580" s="6"/>
       <c r="AK580" s="6"/>
     </row>
-    <row r="581" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -23038,7 +23039,7 @@
       <c r="AJ581" s="6"/>
       <c r="AK581" s="6"/>
     </row>
-    <row r="582" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -23076,7 +23077,7 @@
       <c r="AJ582" s="6"/>
       <c r="AK582" s="6"/>
     </row>
-    <row r="583" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -23114,7 +23115,7 @@
       <c r="AJ583" s="6"/>
       <c r="AK583" s="6"/>
     </row>
-    <row r="584" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -23152,7 +23153,7 @@
       <c r="AJ584" s="6"/>
       <c r="AK584" s="6"/>
     </row>
-    <row r="585" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -23190,7 +23191,7 @@
       <c r="AJ585" s="6"/>
       <c r="AK585" s="6"/>
     </row>
-    <row r="586" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -23228,7 +23229,7 @@
       <c r="AJ586" s="6"/>
       <c r="AK586" s="6"/>
     </row>
-    <row r="587" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -23266,7 +23267,7 @@
       <c r="AJ587" s="6"/>
       <c r="AK587" s="6"/>
     </row>
-    <row r="588" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -23304,7 +23305,7 @@
       <c r="AJ588" s="6"/>
       <c r="AK588" s="6"/>
     </row>
-    <row r="589" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -23342,7 +23343,7 @@
       <c r="AJ589" s="6"/>
       <c r="AK589" s="6"/>
     </row>
-    <row r="590" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -23380,7 +23381,7 @@
       <c r="AJ590" s="6"/>
       <c r="AK590" s="6"/>
     </row>
-    <row r="591" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -23418,7 +23419,7 @@
       <c r="AJ591" s="6"/>
       <c r="AK591" s="6"/>
     </row>
-    <row r="592" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -23456,7 +23457,7 @@
       <c r="AJ592" s="6"/>
       <c r="AK592" s="6"/>
     </row>
-    <row r="593" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -23494,7 +23495,7 @@
       <c r="AJ593" s="6"/>
       <c r="AK593" s="6"/>
     </row>
-    <row r="594" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -23532,7 +23533,7 @@
       <c r="AJ594" s="6"/>
       <c r="AK594" s="6"/>
     </row>
-    <row r="595" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -23570,7 +23571,7 @@
       <c r="AJ595" s="6"/>
       <c r="AK595" s="6"/>
     </row>
-    <row r="596" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -23608,7 +23609,7 @@
       <c r="AJ596" s="6"/>
       <c r="AK596" s="6"/>
     </row>
-    <row r="597" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -23646,7 +23647,7 @@
       <c r="AJ597" s="6"/>
       <c r="AK597" s="6"/>
     </row>
-    <row r="598" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -23684,7 +23685,7 @@
       <c r="AJ598" s="6"/>
       <c r="AK598" s="6"/>
     </row>
-    <row r="599" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -23722,7 +23723,7 @@
       <c r="AJ599" s="6"/>
       <c r="AK599" s="6"/>
     </row>
-    <row r="600" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -23760,7 +23761,7 @@
       <c r="AJ600" s="6"/>
       <c r="AK600" s="6"/>
     </row>
-    <row r="601" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -23798,7 +23799,7 @@
       <c r="AJ601" s="6"/>
       <c r="AK601" s="6"/>
     </row>
-    <row r="602" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -23836,7 +23837,7 @@
       <c r="AJ602" s="6"/>
       <c r="AK602" s="6"/>
     </row>
-    <row r="603" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -23874,7 +23875,7 @@
       <c r="AJ603" s="6"/>
       <c r="AK603" s="6"/>
     </row>
-    <row r="604" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -23912,7 +23913,7 @@
       <c r="AJ604" s="6"/>
       <c r="AK604" s="6"/>
     </row>
-    <row r="605" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -23950,7 +23951,7 @@
       <c r="AJ605" s="6"/>
       <c r="AK605" s="6"/>
     </row>
-    <row r="606" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -23988,7 +23989,7 @@
       <c r="AJ606" s="6"/>
       <c r="AK606" s="6"/>
     </row>
-    <row r="607" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -24026,7 +24027,7 @@
       <c r="AJ607" s="6"/>
       <c r="AK607" s="6"/>
     </row>
-    <row r="608" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -24064,7 +24065,7 @@
       <c r="AJ608" s="6"/>
       <c r="AK608" s="6"/>
     </row>
-    <row r="609" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -24102,7 +24103,7 @@
       <c r="AJ609" s="6"/>
       <c r="AK609" s="6"/>
     </row>
-    <row r="610" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
@@ -24140,7 +24141,7 @@
       <c r="AJ610" s="6"/>
       <c r="AK610" s="6"/>
     </row>
-    <row r="611" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -24178,7 +24179,7 @@
       <c r="AJ611" s="6"/>
       <c r="AK611" s="6"/>
     </row>
-    <row r="612" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -24216,7 +24217,7 @@
       <c r="AJ612" s="6"/>
       <c r="AK612" s="6"/>
     </row>
-    <row r="613" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -24254,7 +24255,7 @@
       <c r="AJ613" s="6"/>
       <c r="AK613" s="6"/>
     </row>
-    <row r="614" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -24292,7 +24293,7 @@
       <c r="AJ614" s="6"/>
       <c r="AK614" s="6"/>
     </row>
-    <row r="615" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -24330,7 +24331,7 @@
       <c r="AJ615" s="6"/>
       <c r="AK615" s="6"/>
     </row>
-    <row r="616" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -24368,7 +24369,7 @@
       <c r="AJ616" s="6"/>
       <c r="AK616" s="6"/>
     </row>
-    <row r="617" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -24406,7 +24407,7 @@
       <c r="AJ617" s="6"/>
       <c r="AK617" s="6"/>
     </row>
-    <row r="618" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -24444,7 +24445,7 @@
       <c r="AJ618" s="6"/>
       <c r="AK618" s="6"/>
     </row>
-    <row r="619" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -24482,7 +24483,7 @@
       <c r="AJ619" s="6"/>
       <c r="AK619" s="6"/>
     </row>
-    <row r="620" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -24520,7 +24521,7 @@
       <c r="AJ620" s="6"/>
       <c r="AK620" s="6"/>
     </row>
-    <row r="621" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -24558,7 +24559,7 @@
       <c r="AJ621" s="6"/>
       <c r="AK621" s="6"/>
     </row>
-    <row r="622" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -24596,7 +24597,7 @@
       <c r="AJ622" s="6"/>
       <c r="AK622" s="6"/>
     </row>
-    <row r="623" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -24634,7 +24635,7 @@
       <c r="AJ623" s="6"/>
       <c r="AK623" s="6"/>
     </row>
-    <row r="624" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -24672,7 +24673,7 @@
       <c r="AJ624" s="6"/>
       <c r="AK624" s="6"/>
     </row>
-    <row r="625" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
@@ -24710,7 +24711,7 @@
       <c r="AJ625" s="6"/>
       <c r="AK625" s="6"/>
     </row>
-    <row r="626" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
@@ -24748,7 +24749,7 @@
       <c r="AJ626" s="6"/>
       <c r="AK626" s="6"/>
     </row>
-    <row r="627" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
@@ -24786,7 +24787,7 @@
       <c r="AJ627" s="6"/>
       <c r="AK627" s="6"/>
     </row>
-    <row r="628" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -24824,7 +24825,7 @@
       <c r="AJ628" s="6"/>
       <c r="AK628" s="6"/>
     </row>
-    <row r="629" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -24862,7 +24863,7 @@
       <c r="AJ629" s="6"/>
       <c r="AK629" s="6"/>
     </row>
-    <row r="630" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -24900,7 +24901,7 @@
       <c r="AJ630" s="6"/>
       <c r="AK630" s="6"/>
     </row>
-    <row r="631" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -24938,7 +24939,7 @@
       <c r="AJ631" s="6"/>
       <c r="AK631" s="6"/>
     </row>
-    <row r="632" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
@@ -24976,7 +24977,7 @@
       <c r="AJ632" s="6"/>
       <c r="AK632" s="6"/>
     </row>
-    <row r="633" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -25014,7 +25015,7 @@
       <c r="AJ633" s="6"/>
       <c r="AK633" s="6"/>
     </row>
-    <row r="634" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -25052,7 +25053,7 @@
       <c r="AJ634" s="6"/>
       <c r="AK634" s="6"/>
     </row>
-    <row r="635" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
@@ -25090,7 +25091,7 @@
       <c r="AJ635" s="6"/>
       <c r="AK635" s="6"/>
     </row>
-    <row r="636" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -25128,7 +25129,7 @@
       <c r="AJ636" s="6"/>
       <c r="AK636" s="6"/>
     </row>
-    <row r="637" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -25166,7 +25167,7 @@
       <c r="AJ637" s="6"/>
       <c r="AK637" s="6"/>
     </row>
-    <row r="638" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -25204,7 +25205,7 @@
       <c r="AJ638" s="6"/>
       <c r="AK638" s="6"/>
     </row>
-    <row r="639" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -25242,7 +25243,7 @@
       <c r="AJ639" s="6"/>
       <c r="AK639" s="6"/>
     </row>
-    <row r="640" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -25280,7 +25281,7 @@
       <c r="AJ640" s="6"/>
       <c r="AK640" s="6"/>
     </row>
-    <row r="641" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -25318,7 +25319,7 @@
       <c r="AJ641" s="6"/>
       <c r="AK641" s="6"/>
     </row>
-    <row r="642" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
@@ -25356,7 +25357,7 @@
       <c r="AJ642" s="6"/>
       <c r="AK642" s="6"/>
     </row>
-    <row r="643" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
@@ -25394,7 +25395,7 @@
       <c r="AJ643" s="6"/>
       <c r="AK643" s="6"/>
     </row>
-    <row r="644" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
@@ -25432,7 +25433,7 @@
       <c r="AJ644" s="6"/>
       <c r="AK644" s="6"/>
     </row>
-    <row r="645" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -25470,7 +25471,7 @@
       <c r="AJ645" s="6"/>
       <c r="AK645" s="6"/>
     </row>
-    <row r="646" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
@@ -25508,7 +25509,7 @@
       <c r="AJ646" s="6"/>
       <c r="AK646" s="6"/>
     </row>
-    <row r="647" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -25546,7 +25547,7 @@
       <c r="AJ647" s="6"/>
       <c r="AK647" s="6"/>
     </row>
-    <row r="648" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
@@ -25584,7 +25585,7 @@
       <c r="AJ648" s="6"/>
       <c r="AK648" s="6"/>
     </row>
-    <row r="649" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -25622,7 +25623,7 @@
       <c r="AJ649" s="6"/>
       <c r="AK649" s="6"/>
     </row>
-    <row r="650" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
@@ -25660,7 +25661,7 @@
       <c r="AJ650" s="6"/>
       <c r="AK650" s="6"/>
     </row>
-    <row r="651" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -25698,7 +25699,7 @@
       <c r="AJ651" s="6"/>
       <c r="AK651" s="6"/>
     </row>
-    <row r="652" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -25736,7 +25737,7 @@
       <c r="AJ652" s="6"/>
       <c r="AK652" s="6"/>
     </row>
-    <row r="653" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -25774,7 +25775,7 @@
       <c r="AJ653" s="6"/>
       <c r="AK653" s="6"/>
     </row>
-    <row r="654" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -25812,7 +25813,7 @@
       <c r="AJ654" s="6"/>
       <c r="AK654" s="6"/>
     </row>
-    <row r="655" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
@@ -25850,7 +25851,7 @@
       <c r="AJ655" s="6"/>
       <c r="AK655" s="6"/>
     </row>
-    <row r="656" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
@@ -25888,7 +25889,7 @@
       <c r="AJ656" s="6"/>
       <c r="AK656" s="6"/>
     </row>
-    <row r="657" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
@@ -25926,7 +25927,7 @@
       <c r="AJ657" s="6"/>
       <c r="AK657" s="6"/>
     </row>
-    <row r="658" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
@@ -25964,7 +25965,7 @@
       <c r="AJ658" s="6"/>
       <c r="AK658" s="6"/>
     </row>
-    <row r="659" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
@@ -26002,7 +26003,7 @@
       <c r="AJ659" s="6"/>
       <c r="AK659" s="6"/>
     </row>
-    <row r="660" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
@@ -26040,7 +26041,7 @@
       <c r="AJ660" s="6"/>
       <c r="AK660" s="6"/>
     </row>
-    <row r="661" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
@@ -26078,7 +26079,7 @@
       <c r="AJ661" s="6"/>
       <c r="AK661" s="6"/>
     </row>
-    <row r="662" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -26116,7 +26117,7 @@
       <c r="AJ662" s="6"/>
       <c r="AK662" s="6"/>
     </row>
-    <row r="663" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
@@ -26154,7 +26155,7 @@
       <c r="AJ663" s="6"/>
       <c r="AK663" s="6"/>
     </row>
-    <row r="664" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
@@ -26192,7 +26193,7 @@
       <c r="AJ664" s="6"/>
       <c r="AK664" s="6"/>
     </row>
-    <row r="665" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -26230,7 +26231,7 @@
       <c r="AJ665" s="6"/>
       <c r="AK665" s="6"/>
     </row>
-    <row r="666" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -26268,7 +26269,7 @@
       <c r="AJ666" s="6"/>
       <c r="AK666" s="6"/>
     </row>
-    <row r="667" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -26306,7 +26307,7 @@
       <c r="AJ667" s="6"/>
       <c r="AK667" s="6"/>
     </row>
-    <row r="668" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
@@ -26344,7 +26345,7 @@
       <c r="AJ668" s="6"/>
       <c r="AK668" s="6"/>
     </row>
-    <row r="669" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
@@ -26382,7 +26383,7 @@
       <c r="AJ669" s="6"/>
       <c r="AK669" s="6"/>
     </row>
-    <row r="670" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
@@ -26420,7 +26421,7 @@
       <c r="AJ670" s="6"/>
       <c r="AK670" s="6"/>
     </row>
-    <row r="671" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
@@ -26458,7 +26459,7 @@
       <c r="AJ671" s="6"/>
       <c r="AK671" s="6"/>
     </row>
-    <row r="672" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
@@ -26496,7 +26497,7 @@
       <c r="AJ672" s="6"/>
       <c r="AK672" s="6"/>
     </row>
-    <row r="673" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
@@ -26534,7 +26535,7 @@
       <c r="AJ673" s="6"/>
       <c r="AK673" s="6"/>
     </row>
-    <row r="674" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
@@ -26572,7 +26573,7 @@
       <c r="AJ674" s="6"/>
       <c r="AK674" s="6"/>
     </row>
-    <row r="675" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -26610,7 +26611,7 @@
       <c r="AJ675" s="6"/>
       <c r="AK675" s="6"/>
     </row>
-    <row r="676" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -26648,7 +26649,7 @@
       <c r="AJ676" s="6"/>
       <c r="AK676" s="6"/>
     </row>
-    <row r="677" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
@@ -26686,7 +26687,7 @@
       <c r="AJ677" s="6"/>
       <c r="AK677" s="6"/>
     </row>
-    <row r="678" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
@@ -26724,7 +26725,7 @@
       <c r="AJ678" s="6"/>
       <c r="AK678" s="6"/>
     </row>
-    <row r="679" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -26762,7 +26763,7 @@
       <c r="AJ679" s="6"/>
       <c r="AK679" s="6"/>
     </row>
-    <row r="680" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
@@ -26800,7 +26801,7 @@
       <c r="AJ680" s="6"/>
       <c r="AK680" s="6"/>
     </row>
-    <row r="681" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
@@ -26838,7 +26839,7 @@
       <c r="AJ681" s="6"/>
       <c r="AK681" s="6"/>
     </row>
-    <row r="682" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
@@ -26876,7 +26877,7 @@
       <c r="AJ682" s="6"/>
       <c r="AK682" s="6"/>
     </row>
-    <row r="683" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
@@ -26914,7 +26915,7 @@
       <c r="AJ683" s="6"/>
       <c r="AK683" s="6"/>
     </row>
-    <row r="684" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
@@ -26952,7 +26953,7 @@
       <c r="AJ684" s="6"/>
       <c r="AK684" s="6"/>
     </row>
-    <row r="685" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -26990,7 +26991,7 @@
       <c r="AJ685" s="6"/>
       <c r="AK685" s="6"/>
     </row>
-    <row r="686" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
@@ -27028,7 +27029,7 @@
       <c r="AJ686" s="6"/>
       <c r="AK686" s="6"/>
     </row>
-    <row r="687" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
@@ -27066,7 +27067,7 @@
       <c r="AJ687" s="6"/>
       <c r="AK687" s="6"/>
     </row>
-    <row r="688" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
@@ -27104,7 +27105,7 @@
       <c r="AJ688" s="6"/>
       <c r="AK688" s="6"/>
     </row>
-    <row r="689" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
@@ -27142,7 +27143,7 @@
       <c r="AJ689" s="6"/>
       <c r="AK689" s="6"/>
     </row>
-    <row r="690" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
@@ -27180,7 +27181,7 @@
       <c r="AJ690" s="6"/>
       <c r="AK690" s="6"/>
     </row>
-    <row r="691" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
@@ -27218,7 +27219,7 @@
       <c r="AJ691" s="6"/>
       <c r="AK691" s="6"/>
     </row>
-    <row r="692" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
@@ -27256,7 +27257,7 @@
       <c r="AJ692" s="6"/>
       <c r="AK692" s="6"/>
     </row>
-    <row r="693" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -27294,7 +27295,7 @@
       <c r="AJ693" s="6"/>
       <c r="AK693" s="6"/>
     </row>
-    <row r="694" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
@@ -27332,7 +27333,7 @@
       <c r="AJ694" s="6"/>
       <c r="AK694" s="6"/>
     </row>
-    <row r="695" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -27370,7 +27371,7 @@
       <c r="AJ695" s="6"/>
       <c r="AK695" s="6"/>
     </row>
-    <row r="696" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -27408,7 +27409,7 @@
       <c r="AJ696" s="6"/>
       <c r="AK696" s="6"/>
     </row>
-    <row r="697" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -27446,7 +27447,7 @@
       <c r="AJ697" s="6"/>
       <c r="AK697" s="6"/>
     </row>
-    <row r="698" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -27484,7 +27485,7 @@
       <c r="AJ698" s="6"/>
       <c r="AK698" s="6"/>
     </row>
-    <row r="699" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -27522,7 +27523,7 @@
       <c r="AJ699" s="6"/>
       <c r="AK699" s="6"/>
     </row>
-    <row r="700" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -27560,7 +27561,7 @@
       <c r="AJ700" s="6"/>
       <c r="AK700" s="6"/>
     </row>
-    <row r="701" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -27598,7 +27599,7 @@
       <c r="AJ701" s="6"/>
       <c r="AK701" s="6"/>
     </row>
-    <row r="702" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -27636,7 +27637,7 @@
       <c r="AJ702" s="6"/>
       <c r="AK702" s="6"/>
     </row>
-    <row r="703" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -27674,7 +27675,7 @@
       <c r="AJ703" s="6"/>
       <c r="AK703" s="6"/>
     </row>
-    <row r="704" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -27712,7 +27713,7 @@
       <c r="AJ704" s="6"/>
       <c r="AK704" s="6"/>
     </row>
-    <row r="705" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -27750,7 +27751,7 @@
       <c r="AJ705" s="6"/>
       <c r="AK705" s="6"/>
     </row>
-    <row r="706" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -27788,7 +27789,7 @@
       <c r="AJ706" s="6"/>
       <c r="AK706" s="6"/>
     </row>
-    <row r="707" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -27826,7 +27827,7 @@
       <c r="AJ707" s="6"/>
       <c r="AK707" s="6"/>
     </row>
-    <row r="708" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -27864,7 +27865,7 @@
       <c r="AJ708" s="6"/>
       <c r="AK708" s="6"/>
     </row>
-    <row r="709" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -27902,7 +27903,7 @@
       <c r="AJ709" s="6"/>
       <c r="AK709" s="6"/>
     </row>
-    <row r="710" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -27940,7 +27941,7 @@
       <c r="AJ710" s="6"/>
       <c r="AK710" s="6"/>
     </row>
-    <row r="711" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -27978,7 +27979,7 @@
       <c r="AJ711" s="6"/>
       <c r="AK711" s="6"/>
     </row>
-    <row r="712" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -28016,7 +28017,7 @@
       <c r="AJ712" s="6"/>
       <c r="AK712" s="6"/>
     </row>
-    <row r="713" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -28054,7 +28055,7 @@
       <c r="AJ713" s="6"/>
       <c r="AK713" s="6"/>
     </row>
-    <row r="714" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -28092,7 +28093,7 @@
       <c r="AJ714" s="6"/>
       <c r="AK714" s="6"/>
     </row>
-    <row r="715" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -28130,7 +28131,7 @@
       <c r="AJ715" s="6"/>
       <c r="AK715" s="6"/>
     </row>
-    <row r="716" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -28168,7 +28169,7 @@
       <c r="AJ716" s="6"/>
       <c r="AK716" s="6"/>
     </row>
-    <row r="717" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -28206,7 +28207,7 @@
       <c r="AJ717" s="6"/>
       <c r="AK717" s="6"/>
     </row>
-    <row r="718" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -28244,7 +28245,7 @@
       <c r="AJ718" s="6"/>
       <c r="AK718" s="6"/>
     </row>
-    <row r="719" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -28282,7 +28283,7 @@
       <c r="AJ719" s="6"/>
       <c r="AK719" s="6"/>
     </row>
-    <row r="720" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -28320,7 +28321,7 @@
       <c r="AJ720" s="6"/>
       <c r="AK720" s="6"/>
     </row>
-    <row r="721" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -28358,7 +28359,7 @@
       <c r="AJ721" s="6"/>
       <c r="AK721" s="6"/>
     </row>
-    <row r="722" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -28396,7 +28397,7 @@
       <c r="AJ722" s="6"/>
       <c r="AK722" s="6"/>
     </row>
-    <row r="723" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -28434,7 +28435,7 @@
       <c r="AJ723" s="6"/>
       <c r="AK723" s="6"/>
     </row>
-    <row r="724" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -28472,7 +28473,7 @@
       <c r="AJ724" s="6"/>
       <c r="AK724" s="6"/>
     </row>
-    <row r="725" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -28510,7 +28511,7 @@
       <c r="AJ725" s="6"/>
       <c r="AK725" s="6"/>
     </row>
-    <row r="726" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -28548,7 +28549,7 @@
       <c r="AJ726" s="6"/>
       <c r="AK726" s="6"/>
     </row>
-    <row r="727" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -28586,7 +28587,7 @@
       <c r="AJ727" s="6"/>
       <c r="AK727" s="6"/>
     </row>
-    <row r="728" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -28624,7 +28625,7 @@
       <c r="AJ728" s="6"/>
       <c r="AK728" s="6"/>
     </row>
-    <row r="729" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -28662,7 +28663,7 @@
       <c r="AJ729" s="6"/>
       <c r="AK729" s="6"/>
     </row>
-    <row r="730" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -28700,7 +28701,7 @@
       <c r="AJ730" s="6"/>
       <c r="AK730" s="6"/>
     </row>
-    <row r="731" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -28738,7 +28739,7 @@
       <c r="AJ731" s="6"/>
       <c r="AK731" s="6"/>
     </row>
-    <row r="732" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -28776,7 +28777,7 @@
       <c r="AJ732" s="6"/>
       <c r="AK732" s="6"/>
     </row>
-    <row r="733" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -28814,7 +28815,7 @@
       <c r="AJ733" s="6"/>
       <c r="AK733" s="6"/>
     </row>
-    <row r="734" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -28852,7 +28853,7 @@
       <c r="AJ734" s="6"/>
       <c r="AK734" s="6"/>
     </row>
-    <row r="735" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -28890,7 +28891,7 @@
       <c r="AJ735" s="6"/>
       <c r="AK735" s="6"/>
     </row>
-    <row r="736" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -28928,7 +28929,7 @@
       <c r="AJ736" s="6"/>
       <c r="AK736" s="6"/>
     </row>
-    <row r="737" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -28966,7 +28967,7 @@
       <c r="AJ737" s="6"/>
       <c r="AK737" s="6"/>
     </row>
-    <row r="738" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -29004,7 +29005,7 @@
       <c r="AJ738" s="6"/>
       <c r="AK738" s="6"/>
     </row>
-    <row r="739" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -29042,7 +29043,7 @@
       <c r="AJ739" s="6"/>
       <c r="AK739" s="6"/>
     </row>
-    <row r="740" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -29080,7 +29081,7 @@
       <c r="AJ740" s="6"/>
       <c r="AK740" s="6"/>
     </row>
-    <row r="741" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -29118,7 +29119,7 @@
       <c r="AJ741" s="6"/>
       <c r="AK741" s="6"/>
     </row>
-    <row r="742" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -29156,7 +29157,7 @@
       <c r="AJ742" s="6"/>
       <c r="AK742" s="6"/>
     </row>
-    <row r="743" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -29194,7 +29195,7 @@
       <c r="AJ743" s="6"/>
       <c r="AK743" s="6"/>
     </row>
-    <row r="744" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -29232,7 +29233,7 @@
       <c r="AJ744" s="6"/>
       <c r="AK744" s="6"/>
     </row>
-    <row r="745" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -29270,7 +29271,7 @@
       <c r="AJ745" s="6"/>
       <c r="AK745" s="6"/>
     </row>
-    <row r="746" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -29308,7 +29309,7 @@
       <c r="AJ746" s="6"/>
       <c r="AK746" s="6"/>
     </row>
-    <row r="747" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -29346,7 +29347,7 @@
       <c r="AJ747" s="6"/>
       <c r="AK747" s="6"/>
     </row>
-    <row r="748" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -29384,7 +29385,7 @@
       <c r="AJ748" s="6"/>
       <c r="AK748" s="6"/>
     </row>
-    <row r="749" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -29422,7 +29423,7 @@
       <c r="AJ749" s="6"/>
       <c r="AK749" s="6"/>
     </row>
-    <row r="750" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -29460,7 +29461,7 @@
       <c r="AJ750" s="6"/>
       <c r="AK750" s="6"/>
     </row>
-    <row r="751" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -29498,7 +29499,7 @@
       <c r="AJ751" s="6"/>
       <c r="AK751" s="6"/>
     </row>
-    <row r="752" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -29536,7 +29537,7 @@
       <c r="AJ752" s="6"/>
       <c r="AK752" s="6"/>
     </row>
-    <row r="753" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -29574,7 +29575,7 @@
       <c r="AJ753" s="6"/>
       <c r="AK753" s="6"/>
     </row>
-    <row r="754" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -29612,7 +29613,7 @@
       <c r="AJ754" s="6"/>
       <c r="AK754" s="6"/>
     </row>
-    <row r="755" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -29650,7 +29651,7 @@
       <c r="AJ755" s="6"/>
       <c r="AK755" s="6"/>
     </row>
-    <row r="756" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -29688,7 +29689,7 @@
       <c r="AJ756" s="6"/>
       <c r="AK756" s="6"/>
     </row>
-    <row r="757" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -29726,7 +29727,7 @@
       <c r="AJ757" s="6"/>
       <c r="AK757" s="6"/>
     </row>
-    <row r="758" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -29764,7 +29765,7 @@
       <c r="AJ758" s="6"/>
       <c r="AK758" s="6"/>
     </row>
-    <row r="759" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -29802,7 +29803,7 @@
       <c r="AJ759" s="6"/>
       <c r="AK759" s="6"/>
     </row>
-    <row r="760" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
@@ -29840,7 +29841,7 @@
       <c r="AJ760" s="6"/>
       <c r="AK760" s="6"/>
     </row>
-    <row r="761" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
@@ -29878,7 +29879,7 @@
       <c r="AJ761" s="6"/>
       <c r="AK761" s="6"/>
     </row>
-    <row r="762" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
@@ -29916,7 +29917,7 @@
       <c r="AJ762" s="6"/>
       <c r="AK762" s="6"/>
     </row>
-    <row r="763" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
@@ -29954,7 +29955,7 @@
       <c r="AJ763" s="6"/>
       <c r="AK763" s="6"/>
     </row>
-    <row r="764" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
@@ -29992,7 +29993,7 @@
       <c r="AJ764" s="6"/>
       <c r="AK764" s="6"/>
     </row>
-    <row r="765" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
@@ -30030,7 +30031,7 @@
       <c r="AJ765" s="6"/>
       <c r="AK765" s="6"/>
     </row>
-    <row r="766" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
@@ -30068,7 +30069,7 @@
       <c r="AJ766" s="6"/>
       <c r="AK766" s="6"/>
     </row>
-    <row r="767" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
@@ -30106,7 +30107,7 @@
       <c r="AJ767" s="6"/>
       <c r="AK767" s="6"/>
     </row>
-    <row r="768" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
@@ -30144,7 +30145,7 @@
       <c r="AJ768" s="6"/>
       <c r="AK768" s="6"/>
     </row>
-    <row r="769" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -30182,7 +30183,7 @@
       <c r="AJ769" s="6"/>
       <c r="AK769" s="6"/>
     </row>
-    <row r="770" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
@@ -30220,7 +30221,7 @@
       <c r="AJ770" s="6"/>
       <c r="AK770" s="6"/>
     </row>
-    <row r="771" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
@@ -30258,7 +30259,7 @@
       <c r="AJ771" s="6"/>
       <c r="AK771" s="6"/>
     </row>
-    <row r="772" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
@@ -30296,7 +30297,7 @@
       <c r="AJ772" s="6"/>
       <c r="AK772" s="6"/>
     </row>
-    <row r="773" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
@@ -30334,7 +30335,7 @@
       <c r="AJ773" s="6"/>
       <c r="AK773" s="6"/>
     </row>
-    <row r="774" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
@@ -30372,7 +30373,7 @@
       <c r="AJ774" s="6"/>
       <c r="AK774" s="6"/>
     </row>
-    <row r="775" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
@@ -30410,7 +30411,7 @@
       <c r="AJ775" s="6"/>
       <c r="AK775" s="6"/>
     </row>
-    <row r="776" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
@@ -30448,7 +30449,7 @@
       <c r="AJ776" s="6"/>
       <c r="AK776" s="6"/>
     </row>
-    <row r="777" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
@@ -30486,7 +30487,7 @@
       <c r="AJ777" s="6"/>
       <c r="AK777" s="6"/>
     </row>
-    <row r="778" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
@@ -30524,7 +30525,7 @@
       <c r="AJ778" s="6"/>
       <c r="AK778" s="6"/>
     </row>
-    <row r="779" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
@@ -30562,7 +30563,7 @@
       <c r="AJ779" s="6"/>
       <c r="AK779" s="6"/>
     </row>
-    <row r="780" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -30600,7 +30601,7 @@
       <c r="AJ780" s="6"/>
       <c r="AK780" s="6"/>
     </row>
-    <row r="781" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
@@ -30638,7 +30639,7 @@
       <c r="AJ781" s="6"/>
       <c r="AK781" s="6"/>
     </row>
-    <row r="782" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
@@ -30676,7 +30677,7 @@
       <c r="AJ782" s="6"/>
       <c r="AK782" s="6"/>
     </row>
-    <row r="783" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -30714,7 +30715,7 @@
       <c r="AJ783" s="6"/>
       <c r="AK783" s="6"/>
     </row>
-    <row r="784" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -30752,7 +30753,7 @@
       <c r="AJ784" s="6"/>
       <c r="AK784" s="6"/>
     </row>
-    <row r="785" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -30790,7 +30791,7 @@
       <c r="AJ785" s="6"/>
       <c r="AK785" s="6"/>
     </row>
-    <row r="786" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -30828,7 +30829,7 @@
       <c r="AJ786" s="6"/>
       <c r="AK786" s="6"/>
     </row>
-    <row r="787" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -30866,7 +30867,7 @@
       <c r="AJ787" s="6"/>
       <c r="AK787" s="6"/>
     </row>
-    <row r="788" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -30904,7 +30905,7 @@
       <c r="AJ788" s="6"/>
       <c r="AK788" s="6"/>
     </row>
-    <row r="789" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -30942,7 +30943,7 @@
       <c r="AJ789" s="6"/>
       <c r="AK789" s="6"/>
     </row>
-    <row r="790" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -30980,7 +30981,7 @@
       <c r="AJ790" s="6"/>
       <c r="AK790" s="6"/>
     </row>
-    <row r="791" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -31018,7 +31019,7 @@
       <c r="AJ791" s="6"/>
       <c r="AK791" s="6"/>
     </row>
-    <row r="792" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -31056,7 +31057,7 @@
       <c r="AJ792" s="6"/>
       <c r="AK792" s="6"/>
     </row>
-    <row r="793" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -31094,7 +31095,7 @@
       <c r="AJ793" s="6"/>
       <c r="AK793" s="6"/>
     </row>
-    <row r="794" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -31132,7 +31133,7 @@
       <c r="AJ794" s="6"/>
       <c r="AK794" s="6"/>
     </row>
-    <row r="795" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -31170,7 +31171,7 @@
       <c r="AJ795" s="6"/>
       <c r="AK795" s="6"/>
     </row>
-    <row r="796" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -31208,7 +31209,7 @@
       <c r="AJ796" s="6"/>
       <c r="AK796" s="6"/>
     </row>
-    <row r="797" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -31246,7 +31247,7 @@
       <c r="AJ797" s="6"/>
       <c r="AK797" s="6"/>
     </row>
-    <row r="798" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -31284,7 +31285,7 @@
       <c r="AJ798" s="6"/>
       <c r="AK798" s="6"/>
     </row>
-    <row r="799" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -31322,7 +31323,7 @@
       <c r="AJ799" s="6"/>
       <c r="AK799" s="6"/>
     </row>
-    <row r="800" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -31360,7 +31361,7 @@
       <c r="AJ800" s="6"/>
       <c r="AK800" s="6"/>
     </row>
-    <row r="801" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -31398,7 +31399,7 @@
       <c r="AJ801" s="6"/>
       <c r="AK801" s="6"/>
     </row>
-    <row r="802" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -31436,7 +31437,7 @@
       <c r="AJ802" s="6"/>
       <c r="AK802" s="6"/>
     </row>
-    <row r="803" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -31474,7 +31475,7 @@
       <c r="AJ803" s="6"/>
       <c r="AK803" s="6"/>
     </row>
-    <row r="804" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -31512,7 +31513,7 @@
       <c r="AJ804" s="6"/>
       <c r="AK804" s="6"/>
     </row>
-    <row r="805" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -31550,7 +31551,7 @@
       <c r="AJ805" s="6"/>
       <c r="AK805" s="6"/>
     </row>
-    <row r="806" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -31588,7 +31589,7 @@
       <c r="AJ806" s="6"/>
       <c r="AK806" s="6"/>
     </row>
-    <row r="807" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -31626,7 +31627,7 @@
       <c r="AJ807" s="6"/>
       <c r="AK807" s="6"/>
     </row>
-    <row r="808" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -31664,7 +31665,7 @@
       <c r="AJ808" s="6"/>
       <c r="AK808" s="6"/>
     </row>
-    <row r="809" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -31702,7 +31703,7 @@
       <c r="AJ809" s="6"/>
       <c r="AK809" s="6"/>
     </row>
-    <row r="810" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -31740,7 +31741,7 @@
       <c r="AJ810" s="6"/>
       <c r="AK810" s="6"/>
     </row>
-    <row r="811" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -31778,7 +31779,7 @@
       <c r="AJ811" s="6"/>
       <c r="AK811" s="6"/>
     </row>
-    <row r="812" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -31816,7 +31817,7 @@
       <c r="AJ812" s="6"/>
       <c r="AK812" s="6"/>
     </row>
-    <row r="813" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -31854,7 +31855,7 @@
       <c r="AJ813" s="6"/>
       <c r="AK813" s="6"/>
     </row>
-    <row r="814" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -31892,7 +31893,7 @@
       <c r="AJ814" s="6"/>
       <c r="AK814" s="6"/>
     </row>
-    <row r="815" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -31930,7 +31931,7 @@
       <c r="AJ815" s="6"/>
       <c r="AK815" s="6"/>
     </row>
-    <row r="816" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -31968,7 +31969,7 @@
       <c r="AJ816" s="6"/>
       <c r="AK816" s="6"/>
     </row>
-    <row r="817" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -32006,7 +32007,7 @@
       <c r="AJ817" s="6"/>
       <c r="AK817" s="6"/>
     </row>
-    <row r="818" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -32044,7 +32045,7 @@
       <c r="AJ818" s="6"/>
       <c r="AK818" s="6"/>
     </row>
-    <row r="819" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -32082,7 +32083,7 @@
       <c r="AJ819" s="6"/>
       <c r="AK819" s="6"/>
     </row>
-    <row r="820" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -32120,7 +32121,7 @@
       <c r="AJ820" s="6"/>
       <c r="AK820" s="6"/>
     </row>
-    <row r="821" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -32158,7 +32159,7 @@
       <c r="AJ821" s="6"/>
       <c r="AK821" s="6"/>
     </row>
-    <row r="822" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -32196,7 +32197,7 @@
       <c r="AJ822" s="6"/>
       <c r="AK822" s="6"/>
     </row>
-    <row r="823" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -32234,7 +32235,7 @@
       <c r="AJ823" s="6"/>
       <c r="AK823" s="6"/>
     </row>
-    <row r="824" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -32272,7 +32273,7 @@
       <c r="AJ824" s="6"/>
       <c r="AK824" s="6"/>
     </row>
-    <row r="825" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -32310,7 +32311,7 @@
       <c r="AJ825" s="6"/>
       <c r="AK825" s="6"/>
     </row>
-    <row r="826" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -32348,7 +32349,7 @@
       <c r="AJ826" s="6"/>
       <c r="AK826" s="6"/>
     </row>
-    <row r="827" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -32386,7 +32387,7 @@
       <c r="AJ827" s="6"/>
       <c r="AK827" s="6"/>
     </row>
-    <row r="828" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -32424,7 +32425,7 @@
       <c r="AJ828" s="6"/>
       <c r="AK828" s="6"/>
     </row>
-    <row r="829" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -32462,7 +32463,7 @@
       <c r="AJ829" s="6"/>
       <c r="AK829" s="6"/>
     </row>
-    <row r="830" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -32500,7 +32501,7 @@
       <c r="AJ830" s="6"/>
       <c r="AK830" s="6"/>
     </row>
-    <row r="831" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -32538,7 +32539,7 @@
       <c r="AJ831" s="6"/>
       <c r="AK831" s="6"/>
     </row>
-    <row r="832" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -32576,7 +32577,7 @@
       <c r="AJ832" s="6"/>
       <c r="AK832" s="6"/>
     </row>
-    <row r="833" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -32614,7 +32615,7 @@
       <c r="AJ833" s="6"/>
       <c r="AK833" s="6"/>
     </row>
-    <row r="834" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -32652,7 +32653,7 @@
       <c r="AJ834" s="6"/>
       <c r="AK834" s="6"/>
     </row>
-    <row r="835" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -32690,7 +32691,7 @@
       <c r="AJ835" s="6"/>
       <c r="AK835" s="6"/>
     </row>
-    <row r="836" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -32728,7 +32729,7 @@
       <c r="AJ836" s="6"/>
       <c r="AK836" s="6"/>
     </row>
-    <row r="837" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -32766,7 +32767,7 @@
       <c r="AJ837" s="6"/>
       <c r="AK837" s="6"/>
     </row>
-    <row r="838" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -32804,7 +32805,7 @@
       <c r="AJ838" s="6"/>
       <c r="AK838" s="6"/>
     </row>
-    <row r="839" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -32842,7 +32843,7 @@
       <c r="AJ839" s="6"/>
       <c r="AK839" s="6"/>
     </row>
-    <row r="840" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -32880,7 +32881,7 @@
       <c r="AJ840" s="6"/>
       <c r="AK840" s="6"/>
     </row>
-    <row r="841" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -32918,7 +32919,7 @@
       <c r="AJ841" s="6"/>
       <c r="AK841" s="6"/>
     </row>
-    <row r="842" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -32956,7 +32957,7 @@
       <c r="AJ842" s="6"/>
       <c r="AK842" s="6"/>
     </row>
-    <row r="843" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -32994,7 +32995,7 @@
       <c r="AJ843" s="6"/>
       <c r="AK843" s="6"/>
     </row>
-    <row r="844" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -33032,7 +33033,7 @@
       <c r="AJ844" s="6"/>
       <c r="AK844" s="6"/>
     </row>
-    <row r="845" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -33070,7 +33071,7 @@
       <c r="AJ845" s="6"/>
       <c r="AK845" s="6"/>
     </row>
-    <row r="846" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -33108,7 +33109,7 @@
       <c r="AJ846" s="6"/>
       <c r="AK846" s="6"/>
     </row>
-    <row r="847" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -33146,7 +33147,7 @@
       <c r="AJ847" s="6"/>
       <c r="AK847" s="6"/>
     </row>
-    <row r="848" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -33184,7 +33185,7 @@
       <c r="AJ848" s="6"/>
       <c r="AK848" s="6"/>
     </row>
-    <row r="849" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -33222,7 +33223,7 @@
       <c r="AJ849" s="6"/>
       <c r="AK849" s="6"/>
     </row>
-    <row r="850" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -33260,7 +33261,7 @@
       <c r="AJ850" s="6"/>
       <c r="AK850" s="6"/>
     </row>
-    <row r="851" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -33298,7 +33299,7 @@
       <c r="AJ851" s="6"/>
       <c r="AK851" s="6"/>
     </row>
-    <row r="852" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -33336,7 +33337,7 @@
       <c r="AJ852" s="6"/>
       <c r="AK852" s="6"/>
     </row>
-    <row r="853" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -33374,7 +33375,7 @@
       <c r="AJ853" s="6"/>
       <c r="AK853" s="6"/>
     </row>
-    <row r="854" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -33412,7 +33413,7 @@
       <c r="AJ854" s="6"/>
       <c r="AK854" s="6"/>
     </row>
-    <row r="855" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -33450,7 +33451,7 @@
       <c r="AJ855" s="6"/>
       <c r="AK855" s="6"/>
     </row>
-    <row r="856" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -33488,7 +33489,7 @@
       <c r="AJ856" s="6"/>
       <c r="AK856" s="6"/>
     </row>
-    <row r="857" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -33526,7 +33527,7 @@
       <c r="AJ857" s="6"/>
       <c r="AK857" s="6"/>
     </row>
-    <row r="858" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -33564,7 +33565,7 @@
       <c r="AJ858" s="6"/>
       <c r="AK858" s="6"/>
     </row>
-    <row r="859" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -33602,7 +33603,7 @@
       <c r="AJ859" s="6"/>
       <c r="AK859" s="6"/>
     </row>
-    <row r="860" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -33640,7 +33641,7 @@
       <c r="AJ860" s="6"/>
       <c r="AK860" s="6"/>
     </row>
-    <row r="861" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -33678,7 +33679,7 @@
       <c r="AJ861" s="6"/>
       <c r="AK861" s="6"/>
     </row>
-    <row r="862" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -33716,7 +33717,7 @@
       <c r="AJ862" s="6"/>
       <c r="AK862" s="6"/>
     </row>
-    <row r="863" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -33754,7 +33755,7 @@
       <c r="AJ863" s="6"/>
       <c r="AK863" s="6"/>
     </row>
-    <row r="864" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -33792,7 +33793,7 @@
       <c r="AJ864" s="6"/>
       <c r="AK864" s="6"/>
     </row>
-    <row r="865" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -33830,7 +33831,7 @@
       <c r="AJ865" s="6"/>
       <c r="AK865" s="6"/>
     </row>
-    <row r="866" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -33868,7 +33869,7 @@
       <c r="AJ866" s="6"/>
       <c r="AK866" s="6"/>
     </row>
-    <row r="867" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -33906,7 +33907,7 @@
       <c r="AJ867" s="6"/>
       <c r="AK867" s="6"/>
     </row>
-    <row r="868" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -33944,7 +33945,7 @@
       <c r="AJ868" s="6"/>
       <c r="AK868" s="6"/>
     </row>
-    <row r="869" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -33982,7 +33983,7 @@
       <c r="AJ869" s="6"/>
       <c r="AK869" s="6"/>
     </row>
-    <row r="870" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -34020,7 +34021,7 @@
       <c r="AJ870" s="6"/>
       <c r="AK870" s="6"/>
     </row>
-    <row r="871" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -34058,7 +34059,7 @@
       <c r="AJ871" s="6"/>
       <c r="AK871" s="6"/>
     </row>
-    <row r="872" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -34096,7 +34097,7 @@
       <c r="AJ872" s="6"/>
       <c r="AK872" s="6"/>
     </row>
-    <row r="873" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -34134,7 +34135,7 @@
       <c r="AJ873" s="6"/>
       <c r="AK873" s="6"/>
     </row>
-    <row r="874" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -34172,7 +34173,7 @@
       <c r="AJ874" s="6"/>
       <c r="AK874" s="6"/>
     </row>
-    <row r="875" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -34210,7 +34211,7 @@
       <c r="AJ875" s="6"/>
       <c r="AK875" s="6"/>
     </row>
-    <row r="876" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -34248,7 +34249,7 @@
       <c r="AJ876" s="6"/>
       <c r="AK876" s="6"/>
     </row>
-    <row r="877" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
@@ -34286,7 +34287,7 @@
       <c r="AJ877" s="6"/>
       <c r="AK877" s="6"/>
     </row>
-    <row r="878" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
@@ -34324,7 +34325,7 @@
       <c r="AJ878" s="6"/>
       <c r="AK878" s="6"/>
     </row>
-    <row r="879" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -34362,7 +34363,7 @@
       <c r="AJ879" s="6"/>
       <c r="AK879" s="6"/>
     </row>
-    <row r="880" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -34400,7 +34401,7 @@
       <c r="AJ880" s="6"/>
       <c r="AK880" s="6"/>
     </row>
-    <row r="881" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -34438,7 +34439,7 @@
       <c r="AJ881" s="6"/>
       <c r="AK881" s="6"/>
     </row>
-    <row r="882" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -34476,7 +34477,7 @@
       <c r="AJ882" s="6"/>
       <c r="AK882" s="6"/>
     </row>
-    <row r="883" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
@@ -34514,7 +34515,7 @@
       <c r="AJ883" s="6"/>
       <c r="AK883" s="6"/>
     </row>
-    <row r="884" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
@@ -34552,7 +34553,7 @@
       <c r="AJ884" s="6"/>
       <c r="AK884" s="6"/>
     </row>
-    <row r="885" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
@@ -34590,7 +34591,7 @@
       <c r="AJ885" s="6"/>
       <c r="AK885" s="6"/>
     </row>
-    <row r="886" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
@@ -34628,7 +34629,7 @@
       <c r="AJ886" s="6"/>
       <c r="AK886" s="6"/>
     </row>
-    <row r="887" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
@@ -34666,7 +34667,7 @@
       <c r="AJ887" s="6"/>
       <c r="AK887" s="6"/>
     </row>
-    <row r="888" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
@@ -34704,7 +34705,7 @@
       <c r="AJ888" s="6"/>
       <c r="AK888" s="6"/>
     </row>
-    <row r="889" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
@@ -34742,7 +34743,7 @@
       <c r="AJ889" s="6"/>
       <c r="AK889" s="6"/>
     </row>
-    <row r="890" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -34780,7 +34781,7 @@
       <c r="AJ890" s="6"/>
       <c r="AK890" s="6"/>
     </row>
-    <row r="891" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
@@ -34818,7 +34819,7 @@
       <c r="AJ891" s="6"/>
       <c r="AK891" s="6"/>
     </row>
-    <row r="892" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
@@ -34856,7 +34857,7 @@
       <c r="AJ892" s="6"/>
       <c r="AK892" s="6"/>
     </row>
-    <row r="893" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
@@ -34894,7 +34895,7 @@
       <c r="AJ893" s="6"/>
       <c r="AK893" s="6"/>
     </row>
-    <row r="894" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
@@ -34932,7 +34933,7 @@
       <c r="AJ894" s="6"/>
       <c r="AK894" s="6"/>
     </row>
-    <row r="895" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
@@ -34970,7 +34971,7 @@
       <c r="AJ895" s="6"/>
       <c r="AK895" s="6"/>
     </row>
-    <row r="896" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
@@ -35008,7 +35009,7 @@
       <c r="AJ896" s="6"/>
       <c r="AK896" s="6"/>
     </row>
-    <row r="897" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
@@ -35046,7 +35047,7 @@
       <c r="AJ897" s="6"/>
       <c r="AK897" s="6"/>
     </row>
-    <row r="898" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
@@ -35084,7 +35085,7 @@
       <c r="AJ898" s="6"/>
       <c r="AK898" s="6"/>
     </row>
-    <row r="899" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
@@ -35122,7 +35123,7 @@
       <c r="AJ899" s="6"/>
       <c r="AK899" s="6"/>
     </row>
-    <row r="900" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
@@ -35160,7 +35161,7 @@
       <c r="AJ900" s="6"/>
       <c r="AK900" s="6"/>
     </row>
-    <row r="901" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -35198,7 +35199,7 @@
       <c r="AJ901" s="6"/>
       <c r="AK901" s="6"/>
     </row>
-    <row r="902" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
@@ -35236,7 +35237,7 @@
       <c r="AJ902" s="6"/>
       <c r="AK902" s="6"/>
     </row>
-    <row r="903" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
@@ -35274,7 +35275,7 @@
       <c r="AJ903" s="6"/>
       <c r="AK903" s="6"/>
     </row>
-    <row r="904" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
@@ -35312,7 +35313,7 @@
       <c r="AJ904" s="6"/>
       <c r="AK904" s="6"/>
     </row>
-    <row r="905" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
@@ -35350,7 +35351,7 @@
       <c r="AJ905" s="6"/>
       <c r="AK905" s="6"/>
     </row>
-    <row r="906" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
@@ -35388,7 +35389,7 @@
       <c r="AJ906" s="6"/>
       <c r="AK906" s="6"/>
     </row>
-    <row r="907" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
@@ -35426,7 +35427,7 @@
       <c r="AJ907" s="6"/>
       <c r="AK907" s="6"/>
     </row>
-    <row r="908" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -35464,7 +35465,7 @@
       <c r="AJ908" s="6"/>
       <c r="AK908" s="6"/>
     </row>
-    <row r="909" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
@@ -35502,7 +35503,7 @@
       <c r="AJ909" s="6"/>
       <c r="AK909" s="6"/>
     </row>
-    <row r="910" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
@@ -35540,7 +35541,7 @@
       <c r="AJ910" s="6"/>
       <c r="AK910" s="6"/>
     </row>
-    <row r="911" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
@@ -35578,7 +35579,7 @@
       <c r="AJ911" s="6"/>
       <c r="AK911" s="6"/>
     </row>
-    <row r="912" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -35616,7 +35617,7 @@
       <c r="AJ912" s="6"/>
       <c r="AK912" s="6"/>
     </row>
-    <row r="913" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
@@ -35654,7 +35655,7 @@
       <c r="AJ913" s="6"/>
       <c r="AK913" s="6"/>
     </row>
-    <row r="914" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
@@ -35692,7 +35693,7 @@
       <c r="AJ914" s="6"/>
       <c r="AK914" s="6"/>
     </row>
-    <row r="915" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
@@ -35730,7 +35731,7 @@
       <c r="AJ915" s="6"/>
       <c r="AK915" s="6"/>
     </row>
-    <row r="916" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
@@ -35768,7 +35769,7 @@
       <c r="AJ916" s="6"/>
       <c r="AK916" s="6"/>
     </row>
-    <row r="917" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
@@ -35806,7 +35807,7 @@
       <c r="AJ917" s="6"/>
       <c r="AK917" s="6"/>
     </row>
-    <row r="918" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
@@ -35844,7 +35845,7 @@
       <c r="AJ918" s="6"/>
       <c r="AK918" s="6"/>
     </row>
-    <row r="919" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
@@ -35882,7 +35883,7 @@
       <c r="AJ919" s="6"/>
       <c r="AK919" s="6"/>
     </row>
-    <row r="920" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
@@ -35920,7 +35921,7 @@
       <c r="AJ920" s="6"/>
       <c r="AK920" s="6"/>
     </row>
-    <row r="921" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
@@ -35958,7 +35959,7 @@
       <c r="AJ921" s="6"/>
       <c r="AK921" s="6"/>
     </row>
-    <row r="922" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
@@ -35996,7 +35997,7 @@
       <c r="AJ922" s="6"/>
       <c r="AK922" s="6"/>
     </row>
-    <row r="923" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
@@ -36034,7 +36035,7 @@
       <c r="AJ923" s="6"/>
       <c r="AK923" s="6"/>
     </row>
-    <row r="924" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -36072,7 +36073,7 @@
       <c r="AJ924" s="6"/>
       <c r="AK924" s="6"/>
     </row>
-    <row r="925" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
@@ -36110,7 +36111,7 @@
       <c r="AJ925" s="6"/>
       <c r="AK925" s="6"/>
     </row>
-    <row r="926" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
@@ -36148,7 +36149,7 @@
       <c r="AJ926" s="6"/>
       <c r="AK926" s="6"/>
     </row>
-    <row r="927" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
@@ -36186,7 +36187,7 @@
       <c r="AJ927" s="6"/>
       <c r="AK927" s="6"/>
     </row>
-    <row r="928" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
@@ -36224,7 +36225,7 @@
       <c r="AJ928" s="6"/>
       <c r="AK928" s="6"/>
     </row>
-    <row r="929" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
@@ -36262,7 +36263,7 @@
       <c r="AJ929" s="6"/>
       <c r="AK929" s="6"/>
     </row>
-    <row r="930" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
@@ -36300,7 +36301,7 @@
       <c r="AJ930" s="6"/>
       <c r="AK930" s="6"/>
     </row>
-    <row r="931" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
@@ -36338,7 +36339,7 @@
       <c r="AJ931" s="6"/>
       <c r="AK931" s="6"/>
     </row>
-    <row r="932" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
@@ -36376,7 +36377,7 @@
       <c r="AJ932" s="6"/>
       <c r="AK932" s="6"/>
     </row>
-    <row r="933" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
@@ -36414,7 +36415,7 @@
       <c r="AJ933" s="6"/>
       <c r="AK933" s="6"/>
     </row>
-    <row r="934" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
@@ -36452,7 +36453,7 @@
       <c r="AJ934" s="6"/>
       <c r="AK934" s="6"/>
     </row>
-    <row r="935" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -36490,7 +36491,7 @@
       <c r="AJ935" s="6"/>
       <c r="AK935" s="6"/>
     </row>
-    <row r="936" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
@@ -36528,7 +36529,7 @@
       <c r="AJ936" s="6"/>
       <c r="AK936" s="6"/>
     </row>
-    <row r="937" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
@@ -36566,7 +36567,7 @@
       <c r="AJ937" s="6"/>
       <c r="AK937" s="6"/>
     </row>
-    <row r="938" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
@@ -36604,7 +36605,7 @@
       <c r="AJ938" s="6"/>
       <c r="AK938" s="6"/>
     </row>
-    <row r="939" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
@@ -36642,7 +36643,7 @@
       <c r="AJ939" s="6"/>
       <c r="AK939" s="6"/>
     </row>
-    <row r="940" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
@@ -36680,7 +36681,7 @@
       <c r="AJ940" s="6"/>
       <c r="AK940" s="6"/>
     </row>
-    <row r="941" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
@@ -36718,7 +36719,7 @@
       <c r="AJ941" s="6"/>
       <c r="AK941" s="6"/>
     </row>
-    <row r="942" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
@@ -36756,7 +36757,7 @@
       <c r="AJ942" s="6"/>
       <c r="AK942" s="6"/>
     </row>
-    <row r="943" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
@@ -36794,7 +36795,7 @@
       <c r="AJ943" s="6"/>
       <c r="AK943" s="6"/>
     </row>
-    <row r="944" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
@@ -36832,7 +36833,7 @@
       <c r="AJ944" s="6"/>
       <c r="AK944" s="6"/>
     </row>
-    <row r="945" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
@@ -36870,7 +36871,7 @@
       <c r="AJ945" s="6"/>
       <c r="AK945" s="6"/>
     </row>
-    <row r="946" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -36908,7 +36909,7 @@
       <c r="AJ946" s="6"/>
       <c r="AK946" s="6"/>
     </row>
-    <row r="947" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
@@ -36946,7 +36947,7 @@
       <c r="AJ947" s="6"/>
       <c r="AK947" s="6"/>
     </row>
-    <row r="948" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
@@ -36984,7 +36985,7 @@
       <c r="AJ948" s="6"/>
       <c r="AK948" s="6"/>
     </row>
-    <row r="949" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
@@ -37022,7 +37023,7 @@
       <c r="AJ949" s="6"/>
       <c r="AK949" s="6"/>
     </row>
-    <row r="950" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
@@ -37060,7 +37061,7 @@
       <c r="AJ950" s="6"/>
       <c r="AK950" s="6"/>
     </row>
-    <row r="951" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
@@ -37098,7 +37099,7 @@
       <c r="AJ951" s="6"/>
       <c r="AK951" s="6"/>
     </row>
-    <row r="952" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
@@ -37136,7 +37137,7 @@
       <c r="AJ952" s="6"/>
       <c r="AK952" s="6"/>
     </row>
-    <row r="953" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
@@ -37174,7 +37175,7 @@
       <c r="AJ953" s="6"/>
       <c r="AK953" s="6"/>
     </row>
-    <row r="954" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
@@ -37212,7 +37213,7 @@
       <c r="AJ954" s="6"/>
       <c r="AK954" s="6"/>
     </row>
-    <row r="955" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
@@ -37250,7 +37251,7 @@
       <c r="AJ955" s="6"/>
       <c r="AK955" s="6"/>
     </row>
-    <row r="956" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
@@ -37288,7 +37289,7 @@
       <c r="AJ956" s="6"/>
       <c r="AK956" s="6"/>
     </row>
-    <row r="957" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
@@ -37326,7 +37327,7 @@
       <c r="AJ957" s="6"/>
       <c r="AK957" s="6"/>
     </row>
-    <row r="958" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -37364,7 +37365,7 @@
       <c r="AJ958" s="6"/>
       <c r="AK958" s="6"/>
     </row>
-    <row r="959" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
       <c r="C959" s="6"/>
@@ -37402,7 +37403,7 @@
       <c r="AJ959" s="6"/>
       <c r="AK959" s="6"/>
     </row>
-    <row r="960" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
       <c r="C960" s="6"/>
@@ -37440,7 +37441,7 @@
       <c r="AJ960" s="6"/>
       <c r="AK960" s="6"/>
     </row>
-    <row r="961" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
       <c r="C961" s="6"/>
@@ -37478,7 +37479,7 @@
       <c r="AJ961" s="6"/>
       <c r="AK961" s="6"/>
     </row>
-    <row r="962" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
       <c r="C962" s="6"/>
@@ -37516,7 +37517,7 @@
       <c r="AJ962" s="6"/>
       <c r="AK962" s="6"/>
     </row>
-    <row r="963" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
       <c r="C963" s="6"/>
@@ -37554,7 +37555,7 @@
       <c r="AJ963" s="6"/>
       <c r="AK963" s="6"/>
     </row>
-    <row r="964" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
       <c r="C964" s="6"/>
@@ -37592,7 +37593,7 @@
       <c r="AJ964" s="6"/>
       <c r="AK964" s="6"/>
     </row>
-    <row r="965" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
       <c r="C965" s="6"/>
@@ -37630,7 +37631,7 @@
       <c r="AJ965" s="6"/>
       <c r="AK965" s="6"/>
     </row>
-    <row r="966" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
       <c r="C966" s="6"/>
@@ -37668,7 +37669,7 @@
       <c r="AJ966" s="6"/>
       <c r="AK966" s="6"/>
     </row>
-    <row r="967" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
       <c r="C967" s="6"/>
@@ -37706,7 +37707,7 @@
       <c r="AJ967" s="6"/>
       <c r="AK967" s="6"/>
     </row>
-    <row r="968" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
       <c r="C968" s="6"/>
@@ -37744,7 +37745,7 @@
       <c r="AJ968" s="6"/>
       <c r="AK968" s="6"/>
     </row>
-    <row r="969" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -37782,7 +37783,7 @@
       <c r="AJ969" s="6"/>
       <c r="AK969" s="6"/>
     </row>
-    <row r="970" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
       <c r="C970" s="6"/>
@@ -37820,7 +37821,7 @@
       <c r="AJ970" s="6"/>
       <c r="AK970" s="6"/>
     </row>
-    <row r="971" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
       <c r="C971" s="6"/>
@@ -37858,7 +37859,7 @@
       <c r="AJ971" s="6"/>
       <c r="AK971" s="6"/>
     </row>
-    <row r="972" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
       <c r="C972" s="6"/>
@@ -37896,7 +37897,7 @@
       <c r="AJ972" s="6"/>
       <c r="AK972" s="6"/>
     </row>
-    <row r="973" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
       <c r="C973" s="6"/>
@@ -37934,7 +37935,7 @@
       <c r="AJ973" s="6"/>
       <c r="AK973" s="6"/>
     </row>
-    <row r="974" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
       <c r="C974" s="6"/>
@@ -37972,7 +37973,7 @@
       <c r="AJ974" s="6"/>
       <c r="AK974" s="6"/>
     </row>
-    <row r="975" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
       <c r="C975" s="6"/>
@@ -38010,7 +38011,7 @@
       <c r="AJ975" s="6"/>
       <c r="AK975" s="6"/>
     </row>
-    <row r="976" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
       <c r="C976" s="6"/>
@@ -38048,7 +38049,7 @@
       <c r="AJ976" s="6"/>
       <c r="AK976" s="6"/>
     </row>
-    <row r="977" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
       <c r="C977" s="6"/>
@@ -38086,7 +38087,7 @@
       <c r="AJ977" s="6"/>
       <c r="AK977" s="6"/>
     </row>
-    <row r="978" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
       <c r="C978" s="6"/>
@@ -38124,7 +38125,7 @@
       <c r="AJ978" s="6"/>
       <c r="AK978" s="6"/>
     </row>
-    <row r="979" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
       <c r="C979" s="6"/>
@@ -38162,7 +38163,7 @@
       <c r="AJ979" s="6"/>
       <c r="AK979" s="6"/>
     </row>
-    <row r="980" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
       <c r="C980" s="6"/>
@@ -38200,7 +38201,7 @@
       <c r="AJ980" s="6"/>
       <c r="AK980" s="6"/>
     </row>
-    <row r="981" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -38238,7 +38239,7 @@
       <c r="AJ981" s="6"/>
       <c r="AK981" s="6"/>
     </row>
-    <row r="982" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
       <c r="C982" s="6"/>
@@ -38276,7 +38277,7 @@
       <c r="AJ982" s="6"/>
       <c r="AK982" s="6"/>
     </row>
-    <row r="983" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
       <c r="C983" s="6"/>
@@ -38314,7 +38315,7 @@
       <c r="AJ983" s="6"/>
       <c r="AK983" s="6"/>
     </row>
-    <row r="984" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:37" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
       <c r="C984" s="6"/>
